--- a/news/data/analysis.xlsx
+++ b/news/data/analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E555"/>
+  <dimension ref="A1:G555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,16 @@
           <t>ISO8601</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>organization</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -486,6 +496,8 @@
           <t>2024-02-12</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -513,6 +525,12 @@
           <t>2024-02-12</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>สํานักงานทรัพยากรน้ําแห่งชาติ | กรมอุต | สํานักงานทรัพยากรน้ําแห่งชาติ</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -540,6 +558,12 @@
           <t>2024-03-16</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>เทศบาล | เทศบาลตําบลเขตรอุดม</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -563,6 +587,16 @@
           <t>2024-06-19</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>สํานักการระบายน้ํา(สนน. | สนน.สํานักงานเขต | สํานักงานเขต</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>นายสุราษฎร์ เจริญชัยสกุล</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -590,6 +624,16 @@
           <t>2024-07-01</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>ป้องกันและบรรเทาสาธารณภัยจังหวัดภูเก็ตปภ.</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>นาย โสภณ ทองไสย</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -617,6 +661,16 @@
           <t>2024-07-24</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>วัดเทพหิรัณย์</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>พระครูมงคลกิจโกศล หลวงปู่ฤาษีตาไฟ | นายไตรศักดิ์ ปัทมรัฐจิรนนท์ | พระ อธิ การธงชัย ขันติโก | นายเอกชัย มิกทา</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -640,6 +694,8 @@
           <t>2024-07-28</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -667,6 +723,16 @@
           <t>2024-07-28</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>ปศุสัตว์จังหวัด</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>นาย พิภพ | นาย พิภพ</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -694,6 +760,12 @@
           <t>2024-07-30</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>จากปราจีนบุรีปภ.หน่วยกู้ภัยมูลนิธิสัจจพุทธธรรมแห่งประเทศไทยกบินทร์บุรี</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -721,6 +793,16 @@
           <t>2024-07-30</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>มูลนิธิสัจจพุทธธรรมแห่งประเทศไทยมูลนิธิร่วมกตัญญู</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>นายสมยศ สง่างาม</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -748,6 +830,12 @@
           <t>2024-07-31</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>นายพรประเสริฐ พินิจชอบ</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -775,6 +863,16 @@
           <t>2024-08-01</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>อบต.ห้วยผา</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>นายศราวุธ ทัง | นายพงษ์</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -798,6 +896,16 @@
           <t>2024-08-05</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>เขื่อนขุนด่านฯ | เขื่อนขุนด่านปราการชล | โครงการส่งน้ําและบํารุงรักษาขุนด่านปราการชล | ขุนด่าน</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>นายจักราวุธ สุนทรวิภาต | นายจักราวุธ</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -825,6 +933,12 @@
           <t>2024-08-05</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>นายพงศ์เทพ จันทรชิต</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -848,6 +962,8 @@
           <t>2024-08-06</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -871,6 +987,16 @@
           <t>2024-08-06</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>. | เขื่อนฯ | ที่กู้ภัยมูลนิธิร่วมกตัญญูเมือง</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>ธรรมนัส</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -894,6 +1020,16 @@
           <t>2024-08-07</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>กรมอุตุนิยมวิทยา | โครงการส่งน้ําและบํารุงรักษาลําปาวเขื่อนลําปาว | โครงการส่งน้ําและบํารุงรักษาลําปาว | กรมอุตุนิยมวิทยา</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>นายสํารวย อินพิทักษ์</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -917,6 +1053,16 @@
           <t>2024-08-13</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>ครม. | สํานักนายกรัฐมนตรีกระทรวงเกษตรและสหกรณ์กษ.กรมชลประทาน | กระทรวงเกษตรและสหกรณ์สํานักนายกรัฐมนตรี | คณะกรรมการก.ช.ภ.จ.กรมชลประทานคณะกรรมการก..ภ.จ.</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>นางสาวเกณิกา อุ่นจิตร์</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -940,6 +1086,12 @@
           <t>2024-08-21</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>ชลประทาน | โครงการชลประทานบึงกาฬ | สถานีเทศบาล | สํานักงานทรัพยากรน้ําแห่งชาติสทนช.</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -967,6 +1119,12 @@
           <t>2024-08-22</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>นายชัยนรงค์ วงศ์ใหญ่ | นายสุ | จินตเวชศาสตร์ | นายวร วิทย์ อิน</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -994,6 +1152,12 @@
           <t>2024-08-22</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>นายวร ายุทธ ค่อมบุญ | นาย กฤตชัย สุวรรณ นายวร ายุทธ ค่อมบุญ</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1021,6 +1185,12 @@
           <t>2024-08-22</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>องค์กร</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1048,6 +1218,12 @@
           <t>2024-08-22</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>เทศบาล | แขวงการทางน่าน</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1075,6 +1251,12 @@
           <t>2024-08-22</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>นายสังคม คัดเชียงแสน</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1098,6 +1280,16 @@
           <t>2024-08-22</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>ปภ.กรมป้องกันและบรรเทาสาธารณภัย | ป้องกันและบรรเทาสาธารณภัยปภ.</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>นายไชยวัฒน์ จุนถิระพงศ์</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1125,6 +1317,16 @@
           <t>2024-08-22</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>รน.บก.รน. | สถานีตํารวจ | สถานีตํารวจ</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>พ . ต . อ .พรศักดิ์ เลารุจิราลัย | พ . ต . อ .พรศักดิ์ | นายสุพจน์ ลังกาวีระนันท์ | เชื่อม | ทอง</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1152,6 +1354,16 @@
           <t>2024-08-22</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>ตชด. | .ตชด.กองกํากับการตํารวจตระเวนชายแดนที่ 32กก.ตชด.32ตชด. | กองร้อยตํารวจตระเวนชายแดนที่324-327 | ตชด.</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>พล . ต . ท .ยงเกียรติ มนปราณีต</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1179,6 +1391,16 @@
           <t>2024-08-22</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>ไข่อบต.วังหลวง | อบต.เวียงทอง</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>นายรัฐกานต์ จันทนู</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1206,6 +1428,16 @@
           <t>2024-08-22</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>" | "สํานักชลประทานที่3 | สํานักงานชลประทานที่3สํานักงานชลประทานที่3ชลประทาน</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>นายวรพจน์ เพชรนรชาติ</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1233,6 +1465,16 @@
           <t>2024-08-22</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>กรมอุทยานฯกรมป่าไม้ | าการกระทรวงทรัพยากรธรรมชาติและสิ่งแวดล้อมทส.กรมอุทยานแห่งชาติ  สัตว์ป่า และพันธุ์พืชกรมป่าไม้ | อุทยานแห่งชาติฯกรมทรัพยากรน้ําและกรมทรัพยากรน้ําบาดาล</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>" พัชร วาท | " พัชร วาท | พล . ต . อ .พัชรวาท วงษ์สุวรรณ | นาย อรรถพล เจริญชันษา</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1260,6 +1502,16 @@
           <t>2024-08-22</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>มท."พิษณุโลกมท. | รวงมหาดไทย | รวงมหาดไทย | รวงมหาดไทย | สํานักงานจังหวัด | สํานักงานป้องกันและบรรเทาสาธารณภัยจังหวัดพิษณุโลก | กเทศมนตรี | รวงมหาดไทยช</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>นาย สุทธิพงษ์ จุลเจริญ | นายสุธน ศรีหิรัญ | อาจารย์ ขวัญทอง สอนศิริ อ . โจ้ | นายบุญเหลือ บารมี | นายนิสิต สวัสดิเทพ | นาย อธิปไตย ไกรราช | นาง เน าวรัตน์ เอกภาพันธ์ | นาย นพคุณ แถมพยัคฆ์ | นาง ปิ่นเพชร พูลสวัสดิ์ | นาย สุทธิพงษ์ | นายอนุทิน ชาญวีรกูล</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1283,6 +1535,16 @@
           <t>2024-08-22</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>สธ. | สธ. | การกระทรวงสาธารณสุข | สาธารณสุข | การกระทรวงสาธารณสุข | การกระทรวงสาธารณสุขกระทรวงสาธารณสุขปฏิบัติการกระทรวงสาธารณสุข | กระทรวงสาธารณสุข</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>" สมศักดิ์ | " สมศักดิ์ | นาย สมศักดิ์ เทพสุทิน | นายแพทย์โอภาส การย์กวินพงศ์ | นายกิตติกร โล่ห์สุนทร | นายวิชัย ไชยมงคล | นาย สมศักดิ์  น . ส .แพทองธาร ชินวัตร</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1310,6 +1572,16 @@
           <t>2024-08-23</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>เกษตรพาณิชย์ | “ทล.-ทช. | มหาดไทย | .เกษตรและสหกรณ์ | .เกษตรและสหกรณ์ | กรมอุตุนิยมวิทยากรมชลประทานสํานักงานทรัพยากรน้ําแห่งชาติ(สทนช.)และกรมป้องกันและบรรเทาสาธารณภัย | กระทรวงมหาดไทย</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>“ ภูมิ ธรรม | “ สุริยะ | นาย ภูมิธรรม เวชยชัย นายอนุทิน ชาญวีรกูล | ร . อ . ธรรมนัส พรหมเผ่า | นาย อรรถ กร ศิริลัทธยากร | นาย ภูมิธรรม  นางสาว แพทองธาร ชินวัตร | โดยนาย ภูมิธรรม</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1333,6 +1605,16 @@
           <t>2024-08-23</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>มูลนิธิร่วมกตัญญู</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>ไท ด์ - เอกพัน บรรลือฤทธิ์</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1360,6 +1642,12 @@
           <t>2024-08-23</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>นายกฯ อิ ๊ งค์ “ ภูมิ ธรรม</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1387,6 +1675,12 @@
           <t>2024-08-23</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>เทศบาล</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1410,6 +1704,16 @@
           <t>2024-08-23</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>ปภ."กรมป้องกันและบรรเทาสาธารณภัย | ป้องกันและบรรเทาสาธารณภัยปภ. | ภู</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>นายไชยวัฒน์ จุนถิระพงศ์</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1437,6 +1741,12 @@
           <t>2024-08-23</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>องค์การบริหารส่วนจังหวัด | มณฑลทหารบกที่35กองพันทหารม้าที่ 12กองพลทหารม้าที่ 1กองอํานวยการรักษาความมั่นคงภายในจังหวัดแพร่</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1464,6 +1774,16 @@
           <t>2024-08-23</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>เกษตรและสหกรณ์ | อบจ. | ชลประทาน</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>ผู้กอง ธรรมนัส | " ธรรมนัส | ร . อ .ธรรมนัส พรหมเผ่า | นายธวัธ ชุ่มวงค์ | นางสุมิตรา กัณฑะมิตร | นายปราโมกข์ ปิงเมือง | ... ร . อ .ธรรมนัส พรหมเผ่า</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1491,6 +1811,16 @@
           <t>2024-08-23</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>สํานักงานทรัพยากรน้ําแห่งชาติสทนช. | สํานักงานทรัพยากรน้ําแห่งชาติสทนช. | สํานักชลประทานการรถไฟแห่งประเทศไทย</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>ดร .สุรสีห์ กิตติมณฑล</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1518,6 +1848,12 @@
           <t>2024-08-23</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>ปภ.กรมป้องกันและบรรเทาสาธารณภัยกรมป้องกันและบรรเทาสาธารณภัย | ช้าง</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1545,6 +1881,16 @@
           <t>2024-08-23</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>มูลนิธิสยามรวมใจพะเยา(เชียงคํานิติเวชโรงพยาบาลเชียงคํา | มูลนิธิสยามรวมใจ</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>ร . ต . ท .ธนชัย ใจแก้ว | นายอุด ไชยวงศ์ | นายอุด</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1568,6 +1914,12 @@
           <t>2024-08-25</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>น . ส .แพทองธาร ชินวัตร</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1595,6 +1947,12 @@
           <t>2024-08-25</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>น . ส .แพทองธาร ชินวัตร</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1622,6 +1980,16 @@
           <t>2024-08-25</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>พรรคเพื่อไทยพท. | พท</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>" อิ ๊ งค์ | นายกฯ อิ ๊ งค์ | “ ภูมิ ธรรม | “ อนุทิน | น . ส .แพทองธาร ชินวัตร | “ อิ ๊ งค์ | น . ส .แพทองธาร ชินวัตร</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1649,6 +2017,16 @@
           <t>2024-08-24</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>สํานักงานชลประทานที่12</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>นายวัชระ ไกรสัย</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1676,6 +2054,12 @@
           <t>2024-08-24</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>สภากาชาดไทยธนาคารไทยพาณิชย์สาขาสภากาชาดไทยส | จุฬาลงกรณ์มหาวิทยาลัยศูนย์เครือข่ายการเรียนรู้เพื่อภูมิภาคจุฬาลงกรณ์มหาวิทยาลัย | สํานักงานศูนย์เครือข่ายการเรียนรู้เพื่อภูมิภาค | จุฬาลงกรณ์มหาวิทยาลัย | 25 | มูลนิธิ | มูลนิธิ</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1703,6 +2087,16 @@
           <t>2024-08-24</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>.ตร | ตร..ตร. | สํานักงานตํารวจแห่งชาติสํานักงานตํารวจแห่งชาติ | .ตร.</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>พล . ต . อ .ต่อศักดิ์ | พล . ต . อ .ต่อศักดิ์ สุขวิมล</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1726,6 +2120,12 @@
           <t>2024-08-25</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>นี | น้อง  น . ส .แพทองธาร ชินวัตร ตระกูล “ อ า ปู  อดีตนายกฯ ยิ่งลักษณ์ ชินวัตร</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1753,6 +2153,16 @@
           <t>2024-08-25</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>กรมชลฯ | กรมชลประทาน | กรมชลประทาน | กรมชลประทาน</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>นายเดช เล็กวิชัย</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1780,6 +2190,12 @@
           <t>2024-08-25</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>นางพัฒสอน ดอนพิมพา</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1807,6 +2223,16 @@
           <t>2024-08-25</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>.เพื่อไทย | กรมชลประทาน | การกระทรวงสาธารณสุข | .สุโขทัยพรรคเพื่อไทย | .สุโขทัยพรรคเพื่อไทย | ชลประทานกรมชลประทาน | สํานักนายกรัฐมนตรี | กรมชลประทาน</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>" สมศักดิ์ " สมศักดิ์ | นาย สมศักดิ์ เทพสุทิน | น . ส .ประภาพร ทองปากน้ํา | นายจักรวาล ชัยวิรัตน์นุกูล | นาย สมศักดิ์</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1834,6 +2260,16 @@
           <t>2024-08-25</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>สธ. | การกระทรวงสาธารณสุข | สาธารณสุขจังหวัด</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>" | " สมศักดิ์ " สมศักดิ์ | นาย สมศักดิ์ เทพสุทิน | นาย สมศักดิ์</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1861,6 +2297,12 @@
           <t>2024-08-26</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>ภูมิ ธรรม | “ ภูมิ ธรรม</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1888,6 +2330,12 @@
           <t>2024-08-26</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>"เขื่อนเจ้าพระยา | " | ของกรมชลประทาน | กรมชลประทาน</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1915,6 +2363,12 @@
           <t>2024-08-26</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>ศบภ.มทบ.37 | มทบ. 37 | ขององค์การบริหารส่วนจังหวัด</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1942,6 +2396,12 @@
           <t>2024-08-26</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>ปภ. | กรมป้องกันและบรรเทาสาธารณภัย | กรมป้องกันและบรรเทาสาธารณภัย</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1965,6 +2425,16 @@
           <t>2024-08-27</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>.เกษตรฯกรมชลประทาน | แม่ลูกจันทร์ | เขื่อนภูมิพล | เขื่อนสิริกิติ์ | เขื่อนอุบลรัตน์ | เขื่อนสิรินธร | เขื่อนจุฬาภรณ์ | แม่ลูกจันทร์</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>ร . อ . ธรรมนัส พรหมเผ่า | นายกฯ ยิ่งลักษณ์ ชินวัตร</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1992,6 +2462,16 @@
           <t>2024-08-25</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>กฟผ.กฟผ.เขื่อน | เขื่อน | ผลิตไฟฟ้าพลังงานหมุนเวียนการไฟฟ้าฝ่ายผลิตแห่งประเทศไทยกฟผ. | กฟผ. | บาศก์เมตร</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>นาย ชวลิต กันคํา</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2019,6 +2499,12 @@
           <t>2024-08-26</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>อบต</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2042,6 +2528,8 @@
           <t>2024-08-26</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2065,6 +2553,8 @@
           <t>2024-08-27</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2092,6 +2582,12 @@
           <t>2024-08-26</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>สทนช. | สํานักงานทรัพยากรน้ําแห่งชาติสทนช.คณะกรรมาธิการแม่น้ําโขง&lt;unk&gt;ekong  &lt;unk&gt;iverเขื่อน | ส</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2119,6 +2615,12 @@
           <t>2024-08-26</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>แขวงทางหลวง | แขวงทางหลวง</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2146,6 +2648,16 @@
           <t>2024-08-26</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>สธ. | สธ. | การกระทรวงสาธารณสุข | กระทรวงสาธารณสุขของกระทรวงสาธารณสุขสํานักงานสาธารณสุขจังหวัดสํานักงานสาธารณสุขจังหวัด</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>" สมศักดิ์ | " สมศักดิ์ | นาย สมศักดิ์ เทพสุทิน | นาย สมศักดิ์</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2173,6 +2685,16 @@
           <t>2024-08-26</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>ด้านสิ่งแวดล้อมและสุขภาพชมรมนักวิชาการสิ่งแวดล้อม</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>" อาจารย์ สนธิ | อาจารย์ สนธิ คชวัฒน์ | ot</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2196,6 +2718,16 @@
           <t>2024-08-26</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>แดงทางวัดเหมืองแดง</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>" ลุง ต ๋อง " ลุง ต ๋อง | " เปิ้ล  นาคร | " เปิ้ล  นาคร ลุง ต ๋อง ลุง ต ๋อง | ลุง ต ๋อง  นายชัย ณรงค์ ชัยชนะ ลุง ต ๋อง | พระ หงษ์คํา สุทฺธิจิตฺโต | ลุง ต ๋อง | นาง</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2223,6 +2755,8 @@
           <t>2024-08-27</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2250,6 +2784,16 @@
           <t>2024-08-27</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>อว. | .การอุดมศึกษา  วิทยาศาสตร์ วิจัยและนวัตกรรมอว.ศูนย์อว.อวอว. | มรภ. | ม.แม่ | มทร. ล้านนา | ม.พะเยา | มรภ.พิบูลสงคราม | วิทยาลัยชุมชน | มรภ. | มรภ. | ม.วลัยลักษณ์ | ม.สงขลานครินทร์อว | .พิมพ์ไทยรัฐ</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>น . ส .ศุภมาส อิศรภักดี</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2277,6 +2821,16 @@
           <t>2024-08-27</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>กรมชล | กรมชลประทาน | ชลประทาน | กรมชลประทาน</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>นายเดช เล็กวิชัย</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2304,6 +2858,16 @@
           <t>2024-08-27</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>วัดป่าบ่อน้ําพระอินทร์ | มูลนิธิมิราเคิล ออฟไลฟ์ | สํานักปฏิบัติธรรมพุทโธภาวนา | มูลนิธิมิราเคิล ออฟไลฟ์ | นุชมูลนิธิมิรา</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>หลวงพ่อ สินทรัพย์ | หลวงพ่อ สินทรัพย์ จรณธัมโม | พล . ท .ประสาน แสงศิริรักษ์ | ครูบา ทรงธรรม | หลวงพ่อ สินทรัพย์ | พระครูปลัดจิรายุส จิรวฑฺฒโน องค์ ครูบา ทรงธรรม | พล . ท .ประสาน แสงศิริรักษ์ | ดร .มนัส โน | ออฟไลฟ์ แสง รักษ์ ธ</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2327,6 +2891,16 @@
           <t>2024-08-27</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>ทบ | ทบ | เจ้ากรมกิจการพลเรือนทหารบกกองทัพบกกองทัพบก | การศูนย์บรรเทาสาธารณภัยกองทัพบก | กองอํานวยการรักษาความมั่นคงภายในจังหวัดกอ.รมน.จังหวัด</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>พล . ท .อานุภาพ ศิริมณฑล | พล . อ .เจริญชัย หินเธาว์</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2350,6 +2924,16 @@
           <t>2024-08-27</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>ทอ. | ทอ | ทหารอากาศศูนย์ปฏิบัติการกองทัพอากาศ.ทอ.ศูนย์บรรเทาสาธารณภัยกองทัพอากาศ | กองทัพอากาศ | พิพิธภัณฑ์กองทัพอากาศและการบิน</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>พล . อ . อ .พันธ์ภักดี พัฒนกุล</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2373,6 +2957,16 @@
           <t>2024-08-27</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>ิ่งแวดล้อม</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>' นายสนธิ คชวัฒน์ | อาจารย์ สนธิ</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2400,6 +2994,16 @@
           <t>2024-08-27</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>อบต. | หน่วยกู้ภัยพิษณุโลกมูลนิธิประสาทบุญสถาน</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>นางเปลือย คําวัฒนา | นางเปลือย</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2423,6 +3027,16 @@
           <t>2024-08-27</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>ปภ.ปภ. | กรมป้องกันและบรรเทาสาธารณภัยปภ. | อธิบดีกรมป้องกันและบรรเทาสาธารณภัยปภ.</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>นายไชยวัฒน์ จุนถิระพงศ์</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2450,6 +3064,16 @@
           <t>2024-08-27</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>ชลประทาน | โครงการชลประทานพิษณุโลก</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>นายชํานาญ ชูเที่ยง</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2477,6 +3101,16 @@
           <t>2024-08-27</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>หน่วยกู้ภัยมูลนิธิพ้งไล้16 | สมาคมตอบโต้ภัยพิบัติประเทศไทย</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>" คณิต า จิตเฉย | น . ส .คณิตา จิตเฉย | คุณ คณิตา จิตเฉย น้อง แนน</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2504,6 +3138,16 @@
           <t>2024-08-27</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>&lt;unk&gt; | การไฟฟ้าส่วนภูมิภาค | การไฟฟ้าส่วนภูมิภาคของการไฟฟ้าส่วนภูมิภาค</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>นายมงคล ตรีกิจจานนท์</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2531,6 +3175,16 @@
           <t>2024-08-27</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>อุทยานดอยสุเทพฯ | อุทยานแห่งชาติดอยสุเทพ-ปุย | อุทยานแห่งชาติ | -ปุย | อุทยานแห่งชาติดอยสุเทพ-ปุย</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>นายภูพิชิต ช่วยบํารุง</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2558,6 +3212,16 @@
           <t>2024-08-27</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>&lt;unk&gt;ik&lt;unk&gt;mam | &lt;unk&gt;ik&lt;unk&gt;mam | mam</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>" ต ุ่น ต ุ่น | _khemnapat | ต ุ่น ต ุ่น | _khemna | khem</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2585,6 +3249,16 @@
           <t>2024-08-27</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>.ทร. | ศบภ.ทร.ทุกหน่วยกองทัพเรือ | สาธารณภัยศูนย์ของหน่วยกองทัพเรือ | หน่วยบัญชาการต่อสู้อากาศยานและรักษาฝั่ง</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>" บิ๊ก ดุ ง | พล . ร . อ.อะดุง พันธุ์เอี่ยม</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2612,6 +3286,16 @@
           <t>2024-08-28</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>พรรคเพื่อไทย</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>นายทักษิณ ชินวัตร</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2639,6 +3323,16 @@
           <t>2024-08-28</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>กรมชลประทาน</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>" | “ ทักษิณ | นายสุชาติ ทีคะสุข</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2662,6 +3356,16 @@
           <t>2024-08-27</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>เทศบาล | เทศบาล | เทศบาล</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>นายก ตี๋ | นายก ตี๋ | นายสุรพล เธียรสูตร  นายกตี๋</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2689,6 +3393,12 @@
           <t>2024-08-28</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>กรมชลประทาน</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2716,6 +3426,12 @@
           <t>2024-08-28</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>กรมชลประทาน | กรมชลประทาน | กรมชลประทาน</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2743,6 +3459,8 @@
           <t>2024-08-28</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2766,6 +3484,12 @@
           <t>2024-08-28</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>กฟผ.การไฟฟ้าฝ่ายผลิตแห่งประเทศไทย | เขื่อน | การไฟฟ้าฝ่ายผลิตแห่งประเทศไทยกฟผ. | กฟผ.</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2789,6 +3513,12 @@
           <t>2024-08-28</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>ตชด.336ทหารกองกําลังนเรศวรอบต.ปางหมู | อบต.ปางหมู</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2816,6 +3546,16 @@
           <t>2024-08-28</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>ชป. | "ชลประทาน | ชลประทานจังหวัด | ป | ปตร.ท่านางงามปตร.ท่าแห | สํานักงานชลประทาน</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>นายชํานาญ ชูเที่ยง</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2843,6 +3583,16 @@
           <t>2024-08-28</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>อว. | อว. | กอ.รมน.ภาค 3อว. | .การอุดมศึกษา วิทยาศาสตร์ วิจัยและนวัตกรรมอว. | อว. | สถาบันสารสนเทศทรัพยากรน้ําสสน. | สํานักงานพัฒนาวิทยาศาสตร์และเทคโนโลยีแห่งชาติสวทช. | หน่วยการพัฒนากําลังการพัฒนาสถาบันอุดมศึกษา วิทยาศาสตร์วิจัยและการสร้างนวัตกรรมบพค. | อว. | อว. | สสน. | เอโดรน</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>น . ส .สุชาดา แทนทรัพย์ | ศ .ดร .ศุภชัย ปทุมนากุล | ดร .รอยบุญ จิตรดอน | ผศ . ดร .วีรชัย อาจหาญ | ผศ .ดร.ศิรินันท์ กุลชาติ | น . ส .ศุภมาส อิศรภักดี</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2870,6 +3620,12 @@
           <t>2024-08-28</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>นางบัวปอย ดอกไม้</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2897,6 +3653,16 @@
           <t>2024-08-28</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>ส</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>นายยุติ ดอกไม้ | นายวร วัจน์ | ญ</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2924,6 +3690,16 @@
           <t>2024-08-29</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>มูลนิธิราชประชา นุเคราะห์ในพระบรมราชูปถัมภ์ | มูลนิธิราชประชานุเคราะห์ ในพระบรมราชูปถัมภ์ | .</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>พระบาท สมเด็จพระเ จ้าอยู่หัว สมเด็จพระ นางเจ้าฯ พระบรมราชินี | พระบาท สมเด็จพระเ จ้าอยู่หัว ให้นาย นุรักษ์ มาประณีต | พระมหา พระมหา</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2951,6 +3727,8 @@
           <t>2024-08-29</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2978,6 +3756,12 @@
           <t>2024-08-29</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>กรมชลประทาน | กรมชลประทาน</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3005,6 +3789,8 @@
           <t>2024-08-29</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3032,6 +3818,8 @@
           <t>2024-08-29</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3059,6 +3847,8 @@
           <t>2024-08-29</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3086,6 +3876,16 @@
           <t>2024-08-30</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>กรมศิลปากร | กลุ่มอนุรักษ์โบราณสถานสํานักศิลปากร</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>" อิ ๊ งค์ | นายกฯ อิ ๊ งค์ | นายเทอดศักดิ์ เย็นจ</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3113,6 +3913,16 @@
           <t>2024-08-30</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1 | กองทัพบก</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>พล . ท .อมฤต บุญสุยา | พล . ท .อมฤต</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3136,6 +3946,16 @@
           <t>2024-08-31</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>พรรคเพื่อไทย</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>น . ส .แพทองธาร ชินวัตร</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3163,6 +3983,16 @@
           <t>2024-08-31</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>พรรคเพื่อไทย | สส.สระแก้ว | คมนาคม | สาธารณสุข | การท่องเที่ยวและกีฬา | สส</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>นายกฯ อิ ๊ งค์ | น . ส .แพทองธาร ชินวัตร | นาย สรวงศ์ เทียนทอง | นาย สุริยะ จึงรุ่งเรืองกิจ | นาย สมศักดิ์ เทพสุทิน | นายเสริมศักดิ์ พงษ์พานิช | แพทอง กาบ</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3190,6 +4020,16 @@
           <t>2024-08-31</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>"เขื่อนไซยะ | เขื่อน | สํานักงานทรัพยากรน้ําแห่งชาติสทนช. | เขื่อน</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>นายจุมพฏ วรรณฉัตรสิริ</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3217,6 +4057,12 @@
           <t>2024-08-31</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>นายสุพจน์ ลังกาวีระนันท์</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3244,6 +4090,16 @@
           <t>2024-08-31</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>กระทรวงเกษตรและสหกรณ์ | โครงการชลประทาน</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>นายอดิเทพ กมลเวชช์ | นายวิทูร เกิดอินทร์</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3271,6 +4127,12 @@
           <t>2024-08-31</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>นางสมใจ คําศรี | นางสมใจ</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3298,6 +4160,16 @@
           <t>2024-09-01</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>มหาดไทย | .เกษตรและสหกรณ์ | สาธารณสุข</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>“ ภูมิ ธรรม | นาย ภูมิธรรม เวชยชัย  นายอนุทิน ชาญวีรกูล | ร . อ . ธรรมนัส พรหมเผ่า | นาย สมศักดิ์ เทพสุทิน | นายสุชาติ ทีคะสุข</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3325,6 +4197,12 @@
           <t>2024-09-01</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>" ภูมิ ธรรม นาย ภูมิธรรม เวชยชัย</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3352,6 +4230,16 @@
           <t>2024-09-01</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>ศูนย์ | โครงการชลประทาน</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>นายรัฐพล นราดิศร | โดยมีนายบํารุง สังข์ขาว | นาย ภูธนะ ชมภูมิ่ง</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3379,6 +4267,12 @@
           <t>2024-09-01</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>กรมชลประทาน | กรมชลประทาน</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3406,6 +4300,16 @@
           <t>2024-09-02</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>เขื่อนเจ้าพระยา | เขื่อน | ชลประทาน | กรมอุตุฯ | ส่วนบริหารจัดการน้ําและบํารุงรักษสํานักงานชลประทานที่12 | กรมชลประทานกรม</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>นายวิชัย ผันประเสริฐ</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3433,6 +4337,8 @@
           <t>2024-09-02</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3460,6 +4366,12 @@
           <t>2024-09-02</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>สํานักงานศิลปากรที่ 3พระนคร</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3487,6 +4399,12 @@
           <t>2024-09-02</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>นายสมคิด กิจนิยม | นายนิวัฒน์ รุ่งสาคร | นางอมรรัตน์ กรึงไกร</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3514,6 +4432,12 @@
           <t>2024-09-02</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>เขื่อน | กรมชลประทานศูนย์ปฏิบัติการน้ําอัจฉริยะ&lt;unk&gt;กรมชลประทาน | กรมชลประทาน</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3541,6 +4465,12 @@
           <t>2024-09-03</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>กรมชลประทาน | ชลประทาน</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3564,6 +4494,8 @@
           <t>2024-09-03</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3591,6 +4523,16 @@
           <t>2024-09-03</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>"กรมชลประทาน | ชลประทาน | กรมชลประทาน | กรมชลประทาน | กรมชลประทาน</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>นายเดช เล็กวิชัย</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3618,6 +4560,8 @@
           <t>2024-09-03</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3645,6 +4589,16 @@
           <t>2024-09-03</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>สํานักงานที่ดินจังหวัด</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>นายสมนึก ธนเดชากุล | นายอภิวัฒน์ เพชรเรือง</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3672,6 +4626,16 @@
           <t>2024-09-04</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>กรมชลประทาน</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>อ้วน - สมศักดิ์ | “ ภูมิ ธรรม | “ สมศักดิ์ | นายเดช เล็กวิชัย</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3699,6 +4663,12 @@
           <t>2024-09-04</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>นายเฉลียว บุตรประสงค์</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3726,6 +4696,8 @@
           <t>2024-09-04</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3753,6 +4725,12 @@
           <t>2024-09-04</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>กรมชลประทาน | กรมอุตุนิยมวิทยา | รมชลประทาน</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3776,6 +4754,16 @@
           <t>2024-09-05</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>หอการค้าไทย | กรมชลประทาน</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>นายกฯ อิ ๊งค์ นายกฯ ยิ่งลักษณ์ | คุณอภิชาติ โตดิลกเวชช์</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3799,6 +4787,16 @@
           <t>2024-09-04</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>นายกเล็ก | เทศมนตรี | เทศมนตรี | กรมอุตุ | กรมชลประทาน</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>นายสมนึก ธนเดชากุล | นายอภิวัฒน์ เพชรเรือง | นาย พงศ์ชัย เกาะหมาก | นายสมนึก ธนเดชากุล</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3826,6 +4824,16 @@
           <t>2024-09-04</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>เทศบาล</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>นายภานุ บุญธรรม | ใต้</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3853,6 +4861,12 @@
           <t>2024-09-05</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>กรมอุตุฯ</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3880,6 +4894,8 @@
           <t>2024-09-05</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3907,6 +4923,16 @@
           <t>2024-09-05</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>ราชการกรุงเทพมหานครของกรุงเทพมหานคร | กรมชลประทาน</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>" ชัชชาติ | นาย ชัชชาติ สิทธิพันธุ์ | ชัชชาติ</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3934,6 +4960,12 @@
           <t>2024-09-05</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>นายพงษ์ ทับนรงค์</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3957,6 +4989,16 @@
           <t>2024-09-06</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>อธิบดีกรม | กรมอุตุนิยมวิทยา</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>เท่ ง เถิดเทิง ส้มเช้ง สามช่า</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -3984,6 +5026,8 @@
           <t>2024-09-06</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4007,6 +5051,16 @@
           <t>2024-09-06</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>กรมชลประทาน | แผนก | สํานักงานทรัพยากรน้ําแห่งชาติสทนช. | กรมชลประทาน</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>ดร .สุรสีห์ กิตติมณฑล</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4034,6 +5088,16 @@
           <t>2024-09-07</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>วิศวกรรมสถานแห่งประเทศไทยฯวสท. | สาขาวิศวกรรมวสท. | 61</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>ดร .สุรเจตส์ บุญญาอรุณเนตร</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4057,6 +5121,12 @@
           <t>2024-09-07</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>รพ.สต. | กรมอุตุนิยมวิทยา</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4084,6 +5154,12 @@
           <t>2024-09-07</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>ปภ.กรมป้องกันและบรรเทาสาธารณภัยกรมป้องกันและบรรเทาสาธารณภัย | ชาญ | พระนคร</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4111,6 +5187,12 @@
           <t>2024-09-08</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>กรมชลประทาน</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4134,6 +5216,12 @@
           <t>2024-09-09</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>กรมอุตุนิยมวิทยา | สทนช. | กรมอุตุนิยมวิทยา</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4161,6 +5249,8 @@
           <t>2024-09-09</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4188,6 +5278,16 @@
           <t>2024-09-09</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>"เขื่อน | กรมชลประทาน | แผนก</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>นางสาวรุ้งทิพย์ อ่ํายศ</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4215,6 +5315,12 @@
           <t>2024-09-10</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>ศูนย์อุตุนิยมวิทยาแห่งชาติ</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4242,6 +5348,12 @@
           <t>2024-09-10</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>ปภ.กรมป้องกันและบรรเทาสาธารณภัยกรมป้องกันและบรรเทาสาธารณภัย</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -4269,6 +5381,16 @@
           <t>2024-09-10</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>กรมทรัพยากรน้ํา | ส่วนอุทกวิทยาที่  1 เชียงใหม่สํานักงานทรัพยากรน้ําที่ 1กรมทรัพยากรน้ําส่วนอุทกวิทยาที่ 1เชียงใหม่สํานักงานทรัพยากรน้ําที่ 1 | กรมอุตุนิยมวิทยาสํานักงานชลประทานที่1</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>ว่า ที่ ร้อย โทสายรุ้ง กลุ่นเขียว</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -4296,6 +5418,16 @@
           <t>2024-09-12</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>คณะกรรมการการศึกษาขั้นพื้นฐานกพฐ.</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>ณัฐ ณิชา ละม้าย</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4323,6 +5455,12 @@
           <t>2024-09-10</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>ปภ.เชียงราย | ปภ.เชียงราย | สวท.เชียงรายกรมประชาสัมพันธ์ | ปภ.เชียงราย | กองอํานวยการป้องกันและบรรเทาสาธารณภัย</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -4350,6 +5488,16 @@
           <t>2024-09-10</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>&lt;unk&gt; .&lt;unk&gt;.&lt;unk&gt;ove</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>ใช้เฟซบุ๊ก  แอน แม่สายมหานคร | &lt;unk&gt; han shanok &lt;unk&gt;avichai</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -4377,6 +5525,12 @@
           <t>2024-09-10</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>ว่า ที่ ร้อย ตรีนพรัตน์ ศุภกิจโกศล</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -4404,6 +5558,16 @@
           <t>2024-09-10</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>ราชประชาฯชมรมจิตอาสาแทนคุณแผ่นดินกู้ภัยหงส์ฟ้า | อส.อบต.</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>นางสลีลญา คําภาแก้ว | นางชดา</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -4431,6 +5595,12 @@
           <t>2024-09-11</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>ศูนย์อํานวยการจิตอาสาพระราชทานภาค3หน่วยทหารมณฑลทหารบกที่ 37กองกําลังผาเมืองจิตอาสาพระราชทานจังหวัดเชียงรายจิตอาสาภัยพิบัติจังหวัดเชียงรายหน่วยกู้ภั | สํานักงานพัฒนาภาค3หน่วยบัญชาการทหารพัฒนาศูนย์บรรเทาสาธารณภัยหน่วยบัญชาการทหารพัฒนา | ศบภ.นพค.31สนภ.3นทพ.(จว.น่าน</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -4458,6 +5628,12 @@
           <t>2024-09-11</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>"สมาคมตอบโต้ภัยพิบัติ ประเทศไทย | สมาคมตอบโต้ภัยพิบัติ ประเทศไทย | สมาคมตอบโต้ภัยพิบัติประเทศไทย</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -4485,6 +5661,12 @@
           <t>2024-09-11</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>กรมทรัพยากรธรณี</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4512,6 +5694,16 @@
           <t>2024-09-11</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>อุทยาน | รพ.แม่อาย</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>นายยาติ จะวอ | นางสลินญา คําภาแก้ว  นายแพทย์เฉลิม โพธานารักษ์ | นายยาติ</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -4539,6 +5731,12 @@
           <t>2024-09-11</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>"สํานักงานทรัพยากรน้ําแห่งชาติ | สํานักงานทรัพยากรน้ําแห่งชาติ | สํานักงานทรัพยากรน้ําแห่งชาติ</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4566,6 +5764,8 @@
           <t>2024-09-11</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -4593,6 +5793,12 @@
           <t>2024-09-11</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>เขื่อน | กรมชลประทาน | แผนก</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -4620,6 +5826,12 @@
           <t>2024-09-11</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>นายพุฒิพงศ์ ศิริมาตย์</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -4647,6 +5859,16 @@
           <t>2024-09-11</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>เมือง</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>นายพุฒิพงศ์ ศิริมาตย์</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4674,6 +5896,12 @@
           <t>2024-09-11</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>สนทช. | สํานักงานทรัพยากรน้ําแห่งชาติ | สํานักงานทรัพยากรน้ําแห่งชาติ</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -4701,6 +5929,12 @@
           <t>2024-09-11</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>นายนิรัตน์ พงษ์สิทธิถาวร | นายนิรัตน์</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -4724,6 +5958,12 @@
           <t>2024-09-11</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>"ถ้ําหลวงอุทยานแห่งชาติถ้ําหลวงฯ | อุทยานแห่งชาติถ้ําหลวง-ขุนน้ํานางนอน | อุทยานฯ | อุทยานแห่งชาติถ้ําหลวง-ขุนน้ํานางนอน</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -4747,6 +5987,12 @@
           <t>2024-09-11</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>มูลนิธิองค์กรความดี | มทบ.37 | มทบ.</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -4774,6 +6020,8 @@
           <t>2024-09-11</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -4801,6 +6049,16 @@
           <t>2024-09-11</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>ฯ | ผคบ.แม่แฝก-แม่ | สมบูรณ์ชล | โครงการส่งน้ําและบํารุงรักษาแม่แฝก-แม่งัดสมบูรณ์ชลผคบ.แม่แฝก-แม่งัด | กรมอุตุนิยมวิทยา | แม่งัดฯ</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>นายเฉลิมเกียรติ อินทกนก</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -4828,6 +6086,12 @@
           <t>2024-09-11</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>สํานักงานกิ่งกาชาดอําเภอแม่สายสํานักงานกิ่งกาชาดอําเภอแม่สาย | สภากาชาดไทย | สํานักงานกิ่งกาชาด | กิ่งกาชาด | สภากาชาดไทย | ธนาคารไทยพาณิชย์สาขาสภากาชาดไทย"สภากาชาดไทย | มูลนิธิสยามพะเยา | มูลนิธิสยามพะเยาสํานักงานใหญ่ | จ</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -4855,6 +6119,16 @@
           <t>2024-09-11</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>แม่สอดฉก.ราชมนู</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>นายสัญญา เพชรเศษ</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -4882,6 +6156,16 @@
           <t>2024-09-11</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>มท. | รวงมหาดไทย | รวงมหาดไทย | ของสํานักงานป้องกันและบรรเทาสาธารณภัยจังหวัดเชียงราย</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>นาย สุทธิพงษ์ จุลเจริญ | พลเอก  ทรงวิทย์ หนุนภักดี นาย พุฒิพงศ์ ศิริมาตย์ | นาย สุทธิพงษ์</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -4909,6 +6193,16 @@
           <t>2024-09-11</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>.ตร. | ตร. | .ตร | สํานักงานตํารวจแห่งชาติ</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>พล . ต . อ .ต่อศักดิ์ | พล . ต . อ .ต่อศักดิ์ สุขวิมล</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -4936,6 +6230,16 @@
           <t>2024-09-11</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>มูลนิธิร่วมกตัญญู | สํานักงานประชาสัมพันธ์จังหวัดเชียงราย</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>บิณฑ์ บรรลือฤทธิ์ และ เอก พันธ์ บรรลือฤทธิ์</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -4963,6 +6267,16 @@
           <t>2024-09-11</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>สํานักงานป้องกันและบรรเทาสาธารณภัยจังหวัดเชียงใหม่</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>น . ส . ก าญารัตน์ ปะฟู  ด . ช .ภาคีน ปะฟู  ด . ญ . ย าโบติ นายยาติ จะวอ | นายธีร ยุทธ สิริวรรณสถิต นางชดาพร ปะฟู | ย | อาย | นาง</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -4990,6 +6304,12 @@
           <t>2024-09-11</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>สํานักงานประชาสัมพันธ์จังหวัดเชียงราย | มูลนิธิกระจกเงา เชียงราย | มูลนิธิกระจกเงาเชียงรายสํานักงานประชาสัมพันธ์จังหวัดเชียงราย</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -5017,6 +6337,16 @@
           <t>2024-09-11</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>อว. | อว. | มรภ.เชียงราย | .การอุดมศึกษาวิทยาศาสตร์ วิจัยและนวัตกรรมอว. | กระทรวง อว.อวมหาวิทยาลัยราชภัฏเชียงรายมรภ.เชียงราย.อว.</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>“ ศุภ มา ส | “ ศุภ มา ส | น . ส .  ศุภมาส อิศรภักดี</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -5044,6 +6374,12 @@
           <t>2024-09-11</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>สิงห์อาสา | สิงห์อาสา | สิงห์อาสาชมรม | สิงห์</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -5071,6 +6407,8 @@
           <t>2024-09-11</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -5098,6 +6436,16 @@
           <t>2024-09-11</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>มท. | มท. | รวงมหาดไทย | วัด | มูลนิธิสมาคม</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>นาย สุทธิพงษ์ จุลเจริญ | นาย พุฒิพงศ์ ศิริมาตย์ | นายณรงค์พล คิดอ่าน | ของนาย สุทธิพงษ์ นาย สุทธิพงษ์ | นาย สุทธิพงษ์ | นาย สุทธิพงษ์ พระคุณ หลวงพ่อพระครูวิบูลธรรมวิมล | วิหาร | นาย สุทธิพงษ์</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -5125,6 +6473,16 @@
           <t>2024-09-11</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>ทร. | .ทร.หน่วยบัญชาการนาวิกโยธิน-หน่วยสงครามพิเศษทางเรือ | .ทร. | ศูนย์บรรเทาสาธารณภัยกองทัพเรือหน่วยบัญชาการนาวิกโยธินหน่วยสงครามพิเศษทางเรือกองเรือยุทธการ | กองพันรถสะเทินน้ําสะ | หน่วยบัญชาการนาวิกโยธิน.นย.หน่วยบัญชาการสงครามพิเศษทางเรือกองเรือยุทธการ&lt;unk&gt;กองทัพ | ทหารเรือ</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>พล เรือ เอก  อะดุง พันธุ์เอี่ยม | พล เรือ เอก วรวุธ พฤกษารุ่งเรือง | พล เรือ โท สมรภูมิ จันโท</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -5152,6 +6510,12 @@
           <t>2024-09-11</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>การไฟฟ้าส่วนภูมิภาคสาขาเมืองเชียงราย | การไฟฟ้าส่วนภูมิภาคสาขาเมืองเชียงราย | การไฟฟ้าส่วนภูมิภาคสาขาเมืองเชียงรายจังหวัด | &lt;unk&gt;ศูนย์พัฒนาฝีมือแรงงานสํานักงานที่ดิน | สห</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -5175,6 +6539,12 @@
           <t>2024-09-11</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>สํานักงานประชาสัมพันธ์จังหวัดเชียงราย | เชียงรายchiang | มูลนิธิสภาเตือนภัยพิบัติแห่งชาติ</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -5202,6 +6572,16 @@
           <t>2024-09-11</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>ตชด. | ตํารวจตระเวน | การตํารวจตระเวนชายแดนตชดตชด | ตชด.เชียงรายร้อยตชดตชดมูลนิธิร่วมกตัญญู | ...ตชด.เชียงใหม่ร้อย | .ท่าตอน | อาย | ตชด | ตชด | ตชด</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>พล ตํารวจ โท  ยงเกียรติ มนปราณีต</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -5229,6 +6609,16 @@
           <t>2024-09-12</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>ทหารมณฑลทหารบก37หน่วยเคลื่อนที่35 | ข.กรมเจ้าท่า</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>“ อิ ๊ งค์</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -5256,6 +6646,8 @@
           <t>2024-09-12</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -5279,6 +6671,12 @@
           <t>2024-09-12</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>กองทัพเรือหน่วยซีล | กองทัพเรือหน่วยซีล | &lt;unk&gt;กองทัพเรือหน่วยซีล</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -5306,6 +6704,12 @@
           <t>2024-09-12</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>"สมาคมตอบโต้ภัยพิบัติ" ประเทศไทย | สมาคมตอบโต้ภัยพิบัติประเทศไทย | สมาคมตอบโต้ภัยพิบัติ ประเทศไทย</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -5333,6 +6737,12 @@
           <t>2024-09-12</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>นายธีร ยุทธ ศิริวรรณสถิต</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -5360,6 +6770,8 @@
           <t>2024-09-12</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -5387,6 +6799,8 @@
           <t>2024-09-12</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -5414,6 +6828,12 @@
           <t>2024-09-12</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>"เวียตเจ็ท-ไลอ้อนแอร์ | " | "เวียตเจ็ท-ไลอ้อนแอร์</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -5441,6 +6861,12 @@
           <t>2024-09-12</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>รพ.เชียงรายประชานุเคราะห์โรงพยาบาลเชียงรายประชานุเคราะห์ | โรงพยาบาลเชียงรายประชานุเคราะห์โรงพยาบาลเชียงรายประชานุเคราะห์ | เราโรงพยาบาลเชียงรายประชานุเคราะห์โรงพยาบาลเชียงรายประชานุเคราะห์</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -5468,6 +6894,12 @@
           <t>2024-09-13</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>นางสาวแพทองธาร ชินวัตร</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -5495,6 +6927,16 @@
           <t>2024-09-12</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>การ | เหล่ากาชาด | สํานักงานป้องกันและบรรเทาสาธารณภัยจังหวัดตากโครงการชลประทานตากกเทศมนตรี | สํานักงานป้องกันและบรรเทาสาธารณภัยจังหวัดตาก</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>นายสมชัย กิจเจริญรุ่งโรจน์ | นาง วรรณฤดี กิจเจริญรุ่งโรจน์ | นายสมชัย กิจเจริญรุ่งโรจน์</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -5518,6 +6960,16 @@
           <t>2024-09-13</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>ม.หอการค้าไทย</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>รศ . ดร .อนุสรณ์ ธรรมใจ | รศ . ดร .อนุสรณ์ ธรรมใจ</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -5545,6 +6997,12 @@
           <t>2024-09-12</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>เทศบาลนคร</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -5572,6 +7030,12 @@
           <t>2024-09-12</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>สทนช. | สํานักงานทรัพยากรน้ําแห่งชาติ | สํานักงานทรัพยากรน้ําแห่งชาติสํานักงานทรัพยากรน้ําแห่งชาติสทนช. | สทนช.</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -5599,6 +7063,12 @@
           <t>2024-09-12</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>ท่าอากาศยาน</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -5626,6 +7096,16 @@
           <t>2024-09-12</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>สมาคมตอบโต้ภัยพิบัติ ประเทศไทย | ปตท. | ปตท. | ปตท.</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>คุณ จักรี จันทร์ไพจิตร นายจักรี จันทร์ไพจิตร | โดยนาย จักรี</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -5653,6 +7133,12 @@
           <t>2024-09-12</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>"บขส | "บขส | กรมทางหลวง</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -5680,6 +7166,16 @@
           <t>2024-09-12</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>ป่อเต็กตึ๊ง | มูลนิธิป่อเต็กตึ๊ง | มูลนิธิป่อเต็กตึ๊ง | มูลนิธิฯ | มูลนิธิฯ | หน่วยกู้ภัยฉะเชิงเทรา</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>แทค ภรัณยู | นายวิเชียร เตชะไพบูลย์ | นายอรัณย์ โตทวด | นายภรัณยู โรจนวุฒิธรรม แทค ภรัณยู</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -5707,6 +7203,16 @@
           <t>2024-09-12</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>ท่าอากาศยา | ศูนย์อุตุนิยมวิทยาภาคเหนือกองบิน41สํานักงานขนส่งจังหวัดเชียงใหม่คณะกรรมการดําเนินงานธุรกิจการบิน&lt;unk&gt;</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>นางคําปัน กูเบอร์ | น า วา อากาศ โท  รณกร เฉลิมแสนยากร</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -5730,6 +7236,12 @@
           <t>2024-09-12</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>นายพงศ์พรรณ แก้วซาว</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -5757,6 +7269,16 @@
           <t>2024-09-12</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>ปภ.ปภ. | ป้องกันและบรรเทาสาธารณภัยปภ. | กรมป้องกันและบรรเทาสาธารณภัยปภ. | ป้องกันและบรรเทาสาธารณภัย | กรมป้องกันและบรรเทาสาธารณภัยปภ.กองทัพบกทบ.ฮ.ปภ.32</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>นายไชยวัฒน์ จุนถิระพงศ์</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -5784,6 +7306,8 @@
           <t>2024-09-12</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -5811,6 +7335,16 @@
           <t>2024-09-12</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>ปั๊มน้ําปตท. | ปตท. | กู้ภัยข่าวภาพกําแพงเพชรปตท.ง</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>นายจักรี จันทร์ไพจิตร | นายวสันต์ จันทร์ไพจิตร | นายจักรี จันทร์ไพจิตร | สมยศ ศิลป์พูน</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -5838,6 +7372,16 @@
           <t>2024-09-12</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>สภ.ปากชมตชด.246,ทพ.2110เทศบาลอบต.</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>นายยศวัฒน์ พัชระศักดิ์สกุล</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -5865,6 +7409,12 @@
           <t>2024-09-12</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>เทศบาล</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -5892,6 +7442,16 @@
           <t>2024-09-12</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>มท. | หน่วยงานอุตุนิยมวิทยา | รวงมหาดไทย | ทหารสูงสุด | กองทัพ | หน่วยบัญชาการสงครามพิเศษทางเรือ กองเรือยุทธการหน่วยซีลกองทัพเรือ | กองบัญชาการกองทัพไทยหน่วยบัญชาการทหารพัฒนา</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>นาย สุทธิพงษ์ จุลเจริญ | พลเอก  มนัส จันดี</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -5919,6 +7479,16 @@
           <t>2024-09-12</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>ไทย | สวนโครงการวิสาหกิจชุมชนอุ่น</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>คุณ นิพนธ์ ตาตน</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -5946,6 +7516,16 @@
           <t>2024-09-12</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>นายกองค์การบริหารส่วน | องค์การบริหารส่วนตําบลแม่สามแลบ | องค์การบริหารส่วนตําบลแม่สามแลบกรมทหารพรานที่ 36</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>นาย พงษ์พิพัฒน์ มีเบญจมาศ</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -5973,6 +7553,12 @@
           <t>2024-09-12</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>จากป่อเต็กตึ๊งกันจอมพลังร่วมกตัญญูกองทัพเรือ</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -6000,6 +7586,12 @@
           <t>2024-09-12</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr"/>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>นางสาวอําพร ไชยดวงศรี</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -6027,6 +7619,12 @@
           <t>2024-09-12</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>สํานักงานพัฒนาเทคโนโลยีอวกาศและภูมิสารสนเทศ&lt;unk&gt;)</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -6054,6 +7652,16 @@
           <t>2024-09-12</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>ศูนย์อํานวยการน้ําแห่งชาติ | การศูนย์อํานวยการน้ําแห่งชาติสํานักงานทรัพยากรน้ําแห่งชาติสทนช.</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>นายฐนโรจน์ วรรัฐประเสริฐ</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -6081,6 +7689,12 @@
           <t>2024-09-12</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>ปภ. | &lt;unk&gt;</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -6108,6 +7722,12 @@
           <t>2024-09-12</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>ตรวจคนเข้า</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -6131,6 +7751,12 @@
           <t>2024-09-12</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>" โค้ช เอก | " โค้ช เอก | " โค้ช เอก "  เอกพล จันทะวงษ์ | โค้ช เอก</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -6158,6 +7784,12 @@
           <t>2024-09-12</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>ทีมกู้ภัยร่วมกตัญญู | กู้ภัยร่วมกตัญญู | กู้ภัย</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -6185,6 +7817,16 @@
           <t>2024-09-12</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>อสอส. | ฝางองค์กรปกครองส่วนท้องถิ่นสภ.ฝางฉก. | านุภาพ</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>ของนาง ช ดาพร ปะฟู | นาย ศตวรรษ อภิวงค์</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -6212,6 +7854,12 @@
           <t>2024-09-12</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>ทีมเรือตอบโต้ภัยพิบัติมูลนิธิเพชรเกษม | ทีมเรือตอบโต้ภัยพิบัติมูลนิธิเพชรเกษม | ทีมภัยพิบัติมูลนิธิเพชรเกษมมูลนิธิเพชรเกษม</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -6239,6 +7887,16 @@
           <t>2024-09-12</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>ปภ.เลย | ชลประทาน</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>นายชัยพจน์ จรูญพงศ์ | นาย กฤษณ์ แก้วทองหลาง | นายธีร ภัทร สามไพบูลย์</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -6266,6 +7924,12 @@
           <t>2024-09-13</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr"/>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>“ อิ ๊ งค์</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -6293,6 +7957,16 @@
           <t>2024-09-13</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>อาสามูลนิธิกระจกเงา</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>" โอ๊ต ปราโมทย์ | บก . ลายจุด " โอ๊ต ปราโมทย์ | นายสมบัติ บุญงามอนงค์  บก . ลายจุด | คุณ โอ๊ต ปราโมทย์ คุณ โอ๊ต เฟซบุ๊ก สมบัติ บุญงามอนงค์</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -6320,6 +7994,8 @@
           <t>2024-09-13</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr"/>
+      <c r="G224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -6343,6 +8019,12 @@
           <t>2024-09-13</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>ของกรมแผนที่ทหาร</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -6370,6 +8052,12 @@
           <t>2024-09-13</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>ทหารเรือหน่วยสงครามพิเศษทางเรือหน่วยซีล</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -6393,6 +8081,8 @@
           <t>2024-09-13</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr"/>
+      <c r="G227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -6420,6 +8110,12 @@
           <t>2024-09-13</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>"สํานักงานทรัพยากรน้ําแห่งชาติ | สํานักงานทรัพยากรน้ําแห่งชาติ</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -6447,6 +8143,12 @@
           <t>2024-09-13</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>นางสาวแพทองธาร ชินวัตร</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -6474,6 +8176,12 @@
           <t>2024-09-13</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>กองทัพเรือ | หน่วยซีลกองทัพเรือสัตหีบ | ทหารเรือ</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -6501,6 +8209,12 @@
           <t>2024-09-13</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>" | "ท่าอากาศยา | "ท่าอากาศยาน</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -6528,6 +8242,16 @@
           <t>2024-09-13</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>รถกู้ภัย ช่วยเหลือผ | พญา | ราย | . | ปตท.</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>" เบ ญ ซีเคร็ท | เบ | เบญ</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -6555,6 +8279,16 @@
           <t>2024-09-13</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>มท. | มท. | รวงมหาดไทย | ศูนย์ขององค์การบริหารส่วนจังหวัดเชียงรายทางเหล่ากาชาดจังหวัดเชียงราย</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>นาย สุทธิพงษ์ จุลเจริญ | นายสุทธิพงษ์ กล่</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -6582,6 +8316,16 @@
           <t>2024-09-13</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>รวงมหาดไทย | กองทัพอากาศ.ทอ.</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>นายกฯ   อิ ๊ งค์ | นางสาวแพทองธาร ชินวัตร นาย ภูมิธรรม เวชยชัย นาย สุริยะ จึงรุ่งเรืองกิจ  พลเอก  ณัฐพล นาคพาณิชย์  นางสาวธีรรัตน์ สําเร็จวาณิชย์ | และนาย พรหม ินทร์ เลิศสุริย์เดช | พล . อ . อ.พันธ์ภักดี พัฒนกุล | นายก รัฐมนต</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -6609,6 +8353,12 @@
           <t>2024-09-13</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>ทีมเรือตอบโต้ภัยพิบัติมูลนิธิเพชรเกษม | ทีมเรือตอบโต้ภัยพิบัติมูลนิธิเพชรเกษม</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -6636,6 +8386,16 @@
           <t>2024-09-13</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>กองทัพเรือ</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>นายกฯ นาย กรัฐมนตรี | น . ส .แพทองธาร ชินวัตร | นายกษิดิศ ธีระประทีป</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -6663,6 +8423,16 @@
           <t>2024-09-13</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>มูลนิธิสว่างโรจนธรรมสถาน</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>น . ส .ศิวพร ไมตรี นายสมศรี ผ่องใส</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -6686,6 +8456,12 @@
           <t>2024-09-13</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>อบต.แม่สามแลบ</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -6713,6 +8489,16 @@
           <t>2024-09-13</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>หน่วยกู้ภัยสยามรวมใจปู่อินทร์บุรีรัมย์ | หน่วยกู้ภัยสยามรวมใจปู่อินทร์ | หน่วยกู้ภัยสยามรวมใจปู่อินทร์</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>นายวริบดินทร์ รุ่งโรจน์ชัยกุล</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -6740,6 +8526,12 @@
           <t>2024-09-13</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>ทต.แม่สายมิตรภาพ</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -6767,6 +8559,16 @@
           <t>2024-09-13</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>รวงมหาดไทย | ป้องกันและบรรเทาสาธารณภัย | ป้องกันและบรรเทาสาธารณภัย</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>นางสาวแพทองธาร ชินวัตร | นาย ภูมิธรรม เวชยชัย นาย สุริยะ จึงรุ่งเรืองกิจ  พลเอก  ณัฐพงษ์ นาคพาณิชย์  นางสาว ธีรรัตน์ สําเร็จวาณิชย์ | นาย สุทธิพงษ์ จุลเจริญ นาย ไชยวัฒน์ จุนถิระพงศ์ | นาย ประเสริฐ จิตต์พลีชีพ | นาย สหรัฐ วงศ์สกุลวิวัฒน์ | นายณรงค์พล คิดอ่าน | " แชมป์ -  ิดิศ ธีระประทีป เขีย  นางสาวแพทองธาร นาย สุทธิพงษ์  นางสาวแพทองธาร | พร</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -6794,6 +8596,12 @@
           <t>2024-09-13</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>กรมชลประทาน | กรมชลประทาน | กรมชลประทานเฟซบุ๊กกรมชลประทาน</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -6821,6 +8629,16 @@
           <t>2024-09-13</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>สภาทนายความภาค 7 | สภาทนายความภาค7</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>นางสาว ภัทราณี ปาณะการ | ของนาย อรรถพร อัมพวา</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -6844,6 +8662,16 @@
           <t>2024-09-13</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>คมนาคม | ทชร. | รวงคมนาคมท่าอากาศยา | ทชร.บริษัทท่าอากาศยานไทย จํากัด(มหาชน)&lt;unk&gt;) | กรมทางหลวงกรมทางหลวงชนบท | สายการบินสายการบินนกแอร์</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>" สุริยะ | นาย สุริยะ จึงรุ่งเรืองกิจ | ดร .  กีรติ กิจมานะวัฒน์</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -6871,6 +8699,12 @@
           <t>2024-09-13</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>"สถานีวิทยุกระจายเสียงแห่งประเทศไทยจังหวัดหนองคาย | เพจสถานีวิทยุกระจายเสียงแห่งประเทศไทยจังหวัดหนองคาย</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -6894,6 +8728,16 @@
           <t>2024-09-14</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>อุตุฯ | กองทัพเรือ | กลาโหม | .คมนาคม | กลาโหม | มหาดไทย</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>อิ ๊ งค์ | นายกฯ อิ ๊ งค์ | น . ส .แพทองธาร ชินวัตร นายกฯ อิ ๊ งค์ | น . ส .แพทองธาร ชินวัตร นาย ภูมิธรรม เวชยชัย | นาย สุริยะ | พาณิชย์ | ธีร ณิช | นพ พรหม ินทร์ สุริย เดช กรัฐมนตรี</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -6921,6 +8765,12 @@
           <t>2024-09-14</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>เทศบาลเมืองหนองคาย"เทศบาลเมืองหนองคาย | เทศบาลเมืองหนองคาย | เทศบาลเมืองหนองคายเทศบาลเมืองหนองคาย | 199ศูนย์ป้องกันและบรรเทาสาธารณภัยเทศบาลเมืองหนองคาย | เทศบาลเมืองหนองคาย | เทศบาล | เทศบาล | เทศบาลเมืองหนองคาย</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -6948,6 +8798,16 @@
           <t>2024-09-14</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>ปภ. | มูลนิธิเพชรเกษมบ.</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>นายสหชาติ ลิ้มเจริญภักดี</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -6975,6 +8835,16 @@
           <t>2024-09-14</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>กลาโหม | กลาโหม</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>น . ส .แพทองธาร ชินวัตร นาย ภูมิธรรม เวชยชัย | พล . อ .ณัฐพล นาคพาณิชย์</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -7002,6 +8872,12 @@
           <t>2024-09-14</t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>ทหารหน่วยบัญชาการสงครามพิเศษทางเรือหน่วยซีล</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -7029,6 +8905,12 @@
           <t>2024-09-14</t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>กองทัพเรือ</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -7056,6 +8938,16 @@
           <t>2024-09-14</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>มทภ.2 | การศูนย์บรรเทาสาธารณภัยกองทัพภาคที่ 2 | มณฑลทหารบกที่ 24การศูนย์บรรเทาสาธารณภัยมณฑลทหารบกที่ 24 | กรมทหารราบที่13(ร.13ศบภ.ร.13สํานักงานทหารพัฒนาภาค2 สนพ.2 นทพ.ปภ.เขต14 | 2ชมรม พสบ. | ศบภ.มทบ.24</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>พล โท  อดุลย์ บุญธรรมเจริญ | พลตรี  ยุทธนา มีทิพย์</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -7079,6 +8971,16 @@
           <t>2024-09-14</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>สํานักงานป้องกันและบรรเทาสาธารณภัยจังหวัดเลย</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>นายกฤษณ์ แก้วทองหลาง</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -7106,6 +9008,12 @@
           <t>2024-09-14</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>เทศบาลตําบลปากคาด</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -7133,6 +9041,12 @@
           <t>2024-09-14</t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>"กรมทางหลวง"กรมทางหลวง | กรมทางหลวง</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -7156,6 +9070,16 @@
           <t>2024-09-14</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>"ท่าอากาศยานนานาชาติ | สภ.เมืองขอนแก่นสภ.บ้านเป็ด | เทศบาลนคร | ปภ.เขต 6อส.ขอนแก่น | สภ.เมืองขอนแก่น | .สภ.เมืองขอนแก่น</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>พ . ต . ท .เมธี ศรีวันนา   ผกก.</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -7183,6 +9107,12 @@
           <t>2024-09-14</t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>เทศบาล | ปิยะพรตชด.มูลนิธิกู้ภัยเอกชน</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -7210,6 +9140,16 @@
           <t>2024-09-14</t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>สํานักงานป้องกันและบรรเทาสาธารณภัยจังหวัดมุกดาหาร | สํานักงานทรัพยากรน้ําแห่งชาติ</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>นายคมเพชร สีดามาตร์ | นายวรญาณ บุญณราช</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -7237,6 +9177,12 @@
           <t>2024-09-14</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>เทศบาล | เทศบาลเมืองหนองคาย | เทศบาลเมืองหนองคาย | เทศบาลเมือง | เทศบาลเมือง</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -7264,6 +9210,12 @@
           <t>2024-09-14</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>ทีมตอบโต้ภัยพิบัติ"มูลนิธิเพชรเกษม | ทีม"มูลนิธิเพชรเกษม | ทีมตอบโต้ภัยพิบัติมูลนิธิเพชรเกษม | มูลนิธิเพชรเกษม</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -7291,6 +9243,12 @@
           <t>2024-09-14</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>&lt;unk&gt; | เพจเฟซบุ๊ก&lt;unk&gt; สํานักงานพัฒนาเทคโนโลยีอวกาศและภูมิสารสนเทศ(องค์การมหาชน) | &lt;unk&gt;เฟซบุ๊ก&lt;unk&gt;สํานักงานพัฒนาเทคโนโลยีอวกาศและภูมิสารสนเทศ(องค์การมหาชน)</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -7314,6 +9272,12 @@
           <t>2024-09-14</t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>"สภากาชาดไทย"สภากาชาดไทยมูลนิธิอาสาเพื่อนพึ่ง (ภาฯ | สภากาชาดไทย&lt;unk&gt;ha&lt;unk&gt;มูลนิธิอาสาเพื่อนพึ่ง(ภาฯ) ยามยากสภากาชาดไทย | สํานักงานอาสากาชาด | สภากาชาดไทยมูลนิธิอาสาเพื่อนพึ่ง(ภาฯ | สภากาชาดไทย</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -7341,6 +9305,16 @@
           <t>2024-09-14</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>หน่วยกู้ภัยฮุก 31 | หน่วยกู้ภัยฮุก  31 นครราชสีมา | ประธานชมรมส่งเสริมการท่องเที่ยว | น้ํา</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>นายพงษ์เทพ มาลาชาสิงห์</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -7368,6 +9342,16 @@
           <t>2024-09-14</t>
         </is>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>เทศบาล | หน่วย | .มท. | การศูนย์ป้องกันและบรรเทาสาธารณภัยเขต7 | ปภ.จังหวัดบึงกาฬ | หน่วยพัฒนาการเคลื่อนที่26สํานักงานพัฒนาภาค 2หน่วยบัญชาการทหารพัฒนา. | สนภ | หน่วยบัญชาการทหารพัฒนา | ปภกรมทหารราบหน่วย</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>นายทวี ชณรงค์ | นายทรงศักดิ์ ทองศรี | นายจุมพฏ วรรณฉัตรสิริ | นายวิ ชาญ แท่นหิน | พันเอก  นิติปกรณ์ คชมหิทธิ์ | นพ.ค.26 | คาด</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -7391,6 +9375,12 @@
           <t>2024-09-14</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr"/>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>นายสมพร อยู่กุด | นายบุญลือ คําน้อย</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -7414,6 +9404,16 @@
           <t>2024-09-14</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>ทบ. | มณฑลทหารบก(มทบ.) 37สงครามพิเศษทางนสร.ศูนย์ต่อต้านผู้ก่อการร้ายสากลศตก.</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>... นายธน วัฒน์ ธีรัตนชัย</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -7441,6 +9441,16 @@
           <t>2024-09-14</t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>แขวงทางหลวงชร.2 | แขวงทางหลวงเชียงรายที่ 2ศูนย์สร้างและบูรณะสะพานที่1 | แขวงทางหลวง | ที่2 | ศูนย์สร้างและบูรณะสะพานที่1</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>นายศุภวิชญ์ จูเปรมปรี</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -7468,6 +9478,12 @@
           <t>2024-09-14</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>เทศบาล | เทศบาลเมือง | เทศบาลเมืองหนองคาย | เทศบาลเมืองหนองคาย</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -7495,6 +9511,16 @@
           <t>2024-09-15</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>อุตุฯ | มหาดไทย</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>“ อนุทิน “ นายกฯ อิ ๊ งค์ | “ บิณฑ์ | “ อนุทิน | นายอนุทิน ชาญวีรกูล | นายอนุทิน</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -7518,6 +9544,8 @@
           <t>2024-09-15</t>
         </is>
       </c>
+      <c r="F270" t="inlineStr"/>
+      <c r="G270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -7545,6 +9573,12 @@
           <t>2024-09-15</t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>เทศบาล</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -7572,6 +9606,16 @@
           <t>2024-09-15</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>สํานักงานทรัพยากรน้ําแห่งชาติสนทช. | กเทศมนตรี | กเทศมนตรี | กเทศมนตรี | กเทศมนตรี</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>หลวงตา สิ้นคิด | นาย ชัชวาลย์ เบญจสิริวงศ์</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -7599,6 +9643,16 @@
           <t>2024-09-15</t>
         </is>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>ปภ.</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>นายครรชิต ชมภูแดง</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -7626,6 +9680,12 @@
           <t>2024-09-16</t>
         </is>
       </c>
+      <c r="F274" t="inlineStr"/>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>นายกฯ แพ ทองธาร</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -7653,6 +9713,16 @@
           <t>2024-09-16</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>จังหวัด | กระทรวง</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>ว .วัชญาน์</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -7680,6 +9750,16 @@
           <t>2024-09-16</t>
         </is>
       </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>“เพจพระลาน | กรมฝนหลวงและการบินเกษตร | กรมทรัพยากรกระทรวง</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>พระบาท สมเด็จพระเ จ้าอยู่หัว  สมเด็จพระ นางเจ้าฯ พระบรม ราชินี</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -7707,6 +9787,16 @@
           <t>2024-09-15</t>
         </is>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>มหาดไทย | รวงมหาดไทยการป้องกันและบรรเทาสาธารณภัยแห่งชาติของกรมป้องกันและบรรเทาสาธารณภัยกระทรวงมหาดไทย | &lt;unk&gt; | &lt;unk&gt;</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>นาย สุทธิพงษ์ จุลเจริญ</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -7734,6 +9824,16 @@
           <t>2024-09-16</t>
         </is>
       </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>ปภ. | มท.1บกปภ.ช. | สํานักงานป้องกันและบรรเทาสาธารณภัยจังหวัด | ปภ.จ.เชียงราย</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>นายกฯ อิ ๊งค์ | นายครรชิต ชมภูแดง</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -7761,6 +9861,16 @@
           <t>2024-09-16</t>
         </is>
       </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>อส.</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>โดยนายจรัญ กลางประดิษฐ์ | นางสมานต์</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -7788,6 +9898,16 @@
           <t>2024-09-16</t>
         </is>
       </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>การจังหวัด | ด้านป้องกันและบรรเทาสาธารณภัย</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>นายศุภศิษย์ กอเจริญยศ</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -7811,6 +9931,12 @@
           <t>2024-09-16</t>
         </is>
       </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>ฉก.ทัพเจ้าตาก | ปภ.</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -7838,6 +9964,12 @@
           <t>2024-09-16</t>
         </is>
       </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>ป้องกันและบรรเทาสาธารณภัยปภ. | ป้องกันและบรรเทาเทศบาลเมืองบึงกาฬปภ. | เทศบาลปภ. บึงกาฬชลประทานบึงกาฬ</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -7865,6 +9997,12 @@
           <t>2024-09-16</t>
         </is>
       </c>
+      <c r="F283" t="inlineStr"/>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>น . ส .ฟ าติมะ ปังแลมาปุเลา | ลุง</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -7892,6 +10030,8 @@
           <t>2024-09-16</t>
         </is>
       </c>
+      <c r="F284" t="inlineStr"/>
+      <c r="G284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -7915,6 +10055,12 @@
           <t>2024-09-16</t>
         </is>
       </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>สํานักงานป้องกันและบรรเทาสาธารณภัยเชียงราย</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -7942,6 +10088,16 @@
           <t>2024-09-16</t>
         </is>
       </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>เทศบาล</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>นายวรญาณ บุญณราช</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -7969,6 +10125,8 @@
           <t>2024-09-16</t>
         </is>
       </c>
+      <c r="F287" t="inlineStr"/>
+      <c r="G287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -7996,6 +10154,12 @@
           <t>2024-09-16</t>
         </is>
       </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>"ศปถ.เชียงราย | เทศบาลนคร | สํานักงานป้องกันและบรรเทาสาธารณภัยเชียงราย</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -8019,6 +10183,12 @@
           <t>2024-09-16</t>
         </is>
       </c>
+      <c r="F289" t="inlineStr"/>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>พ . ต . อ . ยุทธนา งามชัด</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -8046,6 +10216,8 @@
           <t>2024-09-17</t>
         </is>
       </c>
+      <c r="F290" t="inlineStr"/>
+      <c r="G290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -8069,6 +10241,12 @@
           <t>2024-09-17</t>
         </is>
       </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>มหาวิทยาลัยพะเยาหน่วยงานเทศบาลตําบลแม่กา</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -8096,6 +10274,16 @@
           <t>2024-09-17</t>
         </is>
       </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>. | กลาโหม | มหาดไทย</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>นายกฯ อิ ๊ งค์ | น . ส .แพทองธาร ชินวัตร | นาย ภูมิธรรม เวช | นายอนุทิน ชาญ | นาย สุริยะ องกิจ นาย ประเสริฐ นาง ล</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -8123,6 +10311,16 @@
           <t>2024-09-17</t>
         </is>
       </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>เมือง</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>นายนิวัต เจียวิริยบุญญา</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -8150,6 +10348,12 @@
           <t>2024-09-17</t>
         </is>
       </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>กู้ภัยมูลนิธิป่อเต็กตึ๊ง</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -8177,6 +10381,16 @@
           <t>2024-09-17</t>
         </is>
       </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>ตชด.436สตูล | สพป.</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>นาย ภิรมย์ จีนธาดา</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -8200,6 +10414,12 @@
           <t>2024-09-17</t>
         </is>
       </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>มทบ.37ตชด | เค</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -8227,6 +10447,12 @@
           <t>2024-09-17</t>
         </is>
       </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>เทศบาล</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -8250,6 +10476,12 @@
           <t>2024-09-17</t>
         </is>
       </c>
+      <c r="F298" t="inlineStr"/>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>น . ส .น้ําฝน ภูงาม</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -8277,6 +10509,12 @@
           <t>2024-09-17</t>
         </is>
       </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>. | ปภ.ชลประทานเทศบาล | แม่</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -8304,6 +10542,16 @@
           <t>2024-09-17</t>
         </is>
       </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>พะเยา | การจังหวัด | นายกองค์การบริหารส่วนจังหวัดพะเยาหัวหน้าสํานักงานป้องกันและบรรเทาสาธารณภัยจังหวัดพะเยามณฑลทหารบกที่ 34กองร้อยตํารวจตระเวนชายแดนที่326,กองร้อยอาสารักษาดินแดนจังหวัดพะเยาเทศบาลตําบลแม่กาไฟฟ้าภูมิภาคสาธารณสุขจังหวัดพะเยา</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>นายรัฐพล นราดิศร | ... นายรัฐพล นราดิศร | นายธวัช สุทธวงค์</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -8331,6 +10579,8 @@
           <t>2024-09-17</t>
         </is>
       </c>
+      <c r="F301" t="inlineStr"/>
+      <c r="G301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -8358,6 +10608,16 @@
           <t>2024-09-17</t>
         </is>
       </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>รวงมหาดไทย | อส.อปพร.</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>นายสุทธิพงษ์ จุลเจริญ | นายรัฐพล นราดิศร</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -8381,6 +10641,16 @@
           <t>2024-09-17</t>
         </is>
       </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>"มูลนิธิกระจกเงา | มูลนิธิกระจกเงามูลนิธิกระจกเงา | มูลนิธิกระจกเงามูลนิธิฯ | .ส</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>น . ส .สิริพร สุขชูศรี | น | . สิริ</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -8408,6 +10678,12 @@
           <t>2024-09-18</t>
         </is>
       </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>สทนช. | สํานักงานทรัพยากรน้ําแห่งชาติ | สํานักงานทรัพยากรน้ําแห่งชาติสํานักงานทรัพยากรน้ําแห่งชาติสทนช. | สทนช.กรมอุตุนิยมวิทยาและสถาบันสารสนเทศทรัพยากรน้ํา(องค์การมหาชน)กรมทรัพยากรน้ําและกรมทรัพยากรธรณี</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -8431,6 +10707,12 @@
           <t>2024-09-18</t>
         </is>
       </c>
+      <c r="F305" t="inlineStr"/>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>นางอิคา จะแฮ | นางอิ</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -8458,6 +10740,12 @@
           <t>2024-09-18</t>
         </is>
       </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>มหาวิทยาลัย</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -8485,6 +10773,12 @@
           <t>2024-09-18</t>
         </is>
       </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>"เขื่อนเจ้าพระยา | กรมชลประทาน | เพจเฟซบุ๊กกรมชลประทานศูนย์ปฏิบัติการน้ําอัจฉริยะ&lt;unk&gt;กรมชลประทานกรมอุตุนิยมวิทยา | กรมชลประทาน</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -8508,6 +10802,12 @@
           <t>2024-09-18</t>
         </is>
       </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>ปภ. | กรมป้องกันและบรรเทาสาธารณภัยปภ.</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -8535,6 +10835,16 @@
           <t>2024-09-18</t>
         </is>
       </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>ประมงจังหวัดหนองคายศูนย์วิจัยและพัฒนาการเพาะเลี้ยงสัตว์น้ําจืดหนองคายหน่วยเรือตรวจการประมงเขื่อนน้ําอูน | น้ําจืด</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>นาย สมพร | นาย สมพร</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -8558,6 +10868,12 @@
           <t>2024-09-18</t>
         </is>
       </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>ยเทศบาลตําบลแม่เมาะ</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -8581,6 +10897,12 @@
           <t>2024-09-18</t>
         </is>
       </c>
+      <c r="F311" t="inlineStr"/>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>โดยนาย สุริยา และนายอนุชา บัวระภา | สุริย และนาย อนุชา</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -8604,6 +10926,16 @@
           <t>2024-09-18</t>
         </is>
       </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>มทบ 37</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>พ . อ .สิงหนาท โลสุยะ | นายวรรณศิลป์ จีระกาศ</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -8631,6 +10963,12 @@
           <t>2024-09-19</t>
         </is>
       </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>เทศบาลเมือง | สํานักงานเจ้าท่าสาขาภูมิภาคนครพนม | เทศบาล</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -8658,6 +10996,16 @@
           <t>2024-09-20</t>
         </is>
       </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>แม่ | แม่ | แม่ลูกจันทร์ | เขื่อนภูมิพล</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>ลูกจันทร์ | “ | ลูกจันทร์</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -8685,6 +11033,16 @@
           <t>2024-09-20</t>
         </is>
       </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>กรมอุตุนิยมวิทยา</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>รัฐบาล ยิ่งลักษณ์ ชินวัตร</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -8712,6 +11070,16 @@
           <t>2024-09-19</t>
         </is>
       </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>ตชด.436 | อส.</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>พ . ต . ท .  คํานึง อุ่นปลอด | ร . ต . อ .  ปริวรรต หมาดรา</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -8735,6 +11103,8 @@
           <t>2024-09-19</t>
         </is>
       </c>
+      <c r="F317" t="inlineStr"/>
+      <c r="G317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -8758,6 +11128,12 @@
           <t>2024-09-19</t>
         </is>
       </c>
+      <c r="F318" t="inlineStr"/>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>นายชัชวาล ฉายะบุตร</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -8785,6 +11161,12 @@
           <t>2024-09-20</t>
         </is>
       </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>โครงการส่งน้ําบํารุงรักษาห้วยหลวง</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -8812,6 +11194,8 @@
           <t>2024-09-20</t>
         </is>
       </c>
+      <c r="F320" t="inlineStr"/>
+      <c r="G320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -8839,6 +11223,16 @@
           <t>2024-09-20</t>
         </is>
       </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>ของกรมชลประทานฉก.ทัพเจ้าตากมูลนิธิเพื่อนพึ่ง  (ภา)  ยามยาก สภากาชาดไทยกฟผ. | จักรมูลนิธิ</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>น . ส .จันทร์แรม ศิริคําฟู</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -8866,6 +11260,12 @@
           <t>2024-09-21</t>
         </is>
       </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>เทศบาล</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -8893,6 +11293,12 @@
           <t>2024-09-21</t>
         </is>
       </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>เทศบาลเมือง</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -8920,6 +11326,16 @@
           <t>2024-09-21</t>
         </is>
       </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>เกษตรฯ | "กระทรวงเกษตรและสหกรณ์ | การกระทรวงเกษตรและสหกรณ์ | ช่วยว่าการกระทรวงเกษตรและสหกรณ์ | ช่วยว่าการกระทรวงเกษตรและสหกรณ์ | กระทรวงเกษตรและสหกรณ์ | กระทรวงเกษตรและสหกรณ์มูลนิธิอาสาเพื่อนพึ่ง(ภาฯ)  ยามยาก สภากาชาดไทยมูลนิธิธรรมนัสพรหมเผ่า | กระทรวงเกษตรและสหกรณ์โดยชลประทาน</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>ศ . ดร .นฤมล ภิญโญสินวัฒน์ | นาย อิทธิ ศิริลัทธยากร | นาย อัครา พรหมเผ่า | รมว . นฤมล</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -8947,6 +11363,12 @@
           <t>2024-09-22</t>
         </is>
       </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>กรมอุตุนิยมวิทยาสทนช. | ปภ. | ทางหน่วยบัญชาการทหารพัฒนานทพ.กรมป้องกันและบรรเทาสาธารณภัยปภ.มทบ.37นทพ.รดโรงเรียนเม็ง</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -8974,6 +11396,12 @@
           <t>2024-09-22</t>
         </is>
       </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>ทีมเพื่อนพึ่งภาฯกองทัพบก | ทีมภัยพิบัติ | (ภ</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -8997,6 +11425,16 @@
           <t>2024-09-23</t>
         </is>
       </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>การหน่วยบัญชาการทหารพัฒนากองบัญชาการกองทัพไทย</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>ในหลวง - ราชินี | พระบาท สมเด็จพระเ จ้าอยู่หัว และ สมเด็จพระ นางเจ้าฯ พระบรมราชินี | พระบาท สมเด็จพระเ จ้าอยู่หัว สมเด็จพระ นางเจ้าฯ พระบรมราชินี | พล . อ .ทรงวิทย์ หนุนภักดี พล . ท .นพดล ปิ่นทอง</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -9024,6 +11462,12 @@
           <t>2024-09-23</t>
         </is>
       </c>
+      <c r="F328" t="inlineStr"/>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>ด้านนาย นิรัตน์ พงษ์สิทธิถาวร</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -9051,6 +11495,12 @@
           <t>2024-09-23</t>
         </is>
       </c>
+      <c r="F329" t="inlineStr"/>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>นายพงศ์ศักดิ์ เพชรคงแก้ว</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -9074,6 +11524,16 @@
           <t>2024-09-23</t>
         </is>
       </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>ศูนย์อุทกวิทยาชลประทานภาคเหนือตอนบนกรมชลประทาน | โครงการชลประทานเชียงใหม่</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>นายเกื้อกูล มานะสัมพันธ์สกุล | ภูมิพล</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -9101,6 +11561,16 @@
           <t>2024-09-23</t>
         </is>
       </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>โครงการส่งน้ําและบํารุงรักษาห้วยหลวง | ซอ</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>นายวร วิทย์ สุภาอ้วน</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -9128,6 +11598,16 @@
           <t>2024-09-24</t>
         </is>
       </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>สมาคมกู้ภัยพานเทศบาล</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>นาง เพ็ญนภา ตาลน้อย</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -9151,6 +11631,12 @@
           <t>2024-09-24</t>
         </is>
       </c>
+      <c r="F333" t="inlineStr"/>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>" บิณฑ์ บันลือฤทธิ์ | ซึ่ง บิณฑ์ บรรลือฤทธิ์</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -9178,6 +11664,12 @@
           <t>2024-09-24</t>
         </is>
       </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>สํานักงานทรัพยากรน้ําแห่งชาติ | สํานักงานทรัพยากรน้ําแห่งชาติสํานักงานทรัพยากรน้ําแห่งชาติสทนช. | สํานักงานทรัพยากรน้ําแห่งชาติ</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -9205,6 +11697,12 @@
           <t>2024-09-24</t>
         </is>
       </c>
+      <c r="F335" t="inlineStr"/>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>นางมุกดา วงค์นาค</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -9232,6 +11730,12 @@
           <t>2024-09-24</t>
         </is>
       </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>สํานักงานชลประทานที่ 1 | สํานักงานชลประทานที่ 1 | สํานักงานชลประทานที่ 1 | กันยายน</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -9255,6 +11759,16 @@
           <t>2024-09-24</t>
         </is>
       </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>โครงการชลประทานเชียงใหม่ | คริสเตียน | โรงเรียนปรินส์รอยแยลส์วิทยาลัยโรงเรียนดาราวิทยาลัยโรงเรียนเชียงใหม่คริสเตียน</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>นายอัศนี บูรณุปกรณ์</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -9282,6 +11796,8 @@
           <t>2024-09-24</t>
         </is>
       </c>
+      <c r="F338" t="inlineStr"/>
+      <c r="G338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -9309,6 +11825,16 @@
           <t>2024-09-24</t>
         </is>
       </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>อาสาสมัครกู้ภัยส่งเสริม | กุดจับ | ซม.</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>นายธวัชชัย วงศ์เชียงเพ็ง</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -9332,6 +11858,16 @@
           <t>2024-09-24</t>
         </is>
       </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>เทศบาลนคร | เทศบาล</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>นางบําเพ็ญ ปันแก้ว | ด้านนาย นิยม ปันม้า</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -9359,6 +11895,16 @@
           <t>2024-09-24</t>
         </is>
       </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>มณฑลทหารบกที่35 | มณฑลทหารบกที่ 35 | เมือง</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>พลตรี  สุชาติ พุ่มสุวรรณ</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -9382,6 +11928,16 @@
           <t>2024-09-24</t>
         </is>
       </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>มท. | ปลัดกระทรวงมหาดไทย | รวงมหาดไทย | ก</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>นายสุทธิพงษ์ จุลเจริญ | นายชัชวาลย์ ฉายะบุตร</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -9409,6 +11965,16 @@
           <t>2024-09-24</t>
         </is>
       </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>การสํานักชลประทานที่ 1 | กเทศมนตรี | สํานักงานป้องกันและบรรเทาสาธารณภัยจังหวัด | การไฟฟ้า</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>นายอัฏฐวิชย์ นาควัชระ | นายอัศนี บูรณุปกรณ์ | และนาย ดุสิต พงศาพิพัฒน์ | นายอัฏฐวิชย์</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -9436,6 +12002,12 @@
           <t>2024-09-24</t>
         </is>
       </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>เทศบาลนคร | สํานักงานชลประทานสํานักงานชลประทานที่ 1</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -9459,6 +12031,16 @@
           <t>2024-09-24</t>
         </is>
       </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>มช. | สํานักงานชลประทาน | มช. | สภ.แม่ปิงเชียงใหม่ | สํานักงานชลประทานสํานักงานชลประทาน1 | ศูนย์ความเป็นเลิศด้านการจัดการภัยพิบัติทางธรรมชาติมหาวิทยาลัยเชียงใหม่ | 65 | ก</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>รองศาสตรา จารย์ชูโชค อายุพงศ์</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -9482,6 +12064,12 @@
           <t>2024-09-25</t>
         </is>
       </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>มงฟอร์ต | โรงเรียนเรยีนาที่ทําการสํานักองค์การบริหาร  ป่าไม้ที่ 16</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -9509,6 +12097,8 @@
           <t>2024-09-25</t>
         </is>
       </c>
+      <c r="F347" t="inlineStr"/>
+      <c r="G347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -9536,6 +12126,12 @@
           <t>2024-09-25</t>
         </is>
       </c>
+      <c r="F348" t="inlineStr"/>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>ในหลวง - ราชินี  พระบาท สมเด็จพระเ จ้าอยู่หัว สมเด็จพระ นางเจ้าฯ พระบรมราชินี | นายกฯ อิ ๊งค์ | พระบาท สมเด็จพระเ จ้าอยู่หัว สมเด็จพระ นางเจ้าฯ พระบรมราชินี | พระบาท สมเด็จพระเ จ้าอยู่หัว สมเด็จพระ นางเจ้าฯ พระบรม | ประ</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -9563,6 +12159,16 @@
           <t>2024-09-25</t>
         </is>
       </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>สถานี | สมาคมอาสาสมัครกู้ภัยจังหวัดแพร่สมาคมกู้ภัยเด่นชัยร่วมบุญและกู้ภัยสูงเม่น</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>นายชุติเดช มีจันทร์</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -9590,6 +12196,16 @@
           <t>2024-09-25</t>
         </is>
       </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>ศูนย์อํานวยการป้องกันและบรรเทาสาธารณภัย</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>นายอเนก ปันทะยม | นายชูชีพ พงษ์ไชย</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -9613,6 +12229,8 @@
           <t>2024-09-25</t>
         </is>
       </c>
+      <c r="F351" t="inlineStr"/>
+      <c r="G351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -9640,6 +12258,16 @@
           <t>2024-09-25</t>
         </is>
       </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>สํานักงานชลประทานที่ 12 | สํานักงานชลประทานที่ 12กรมชลประทาน | สํานักงานชลประทานที่12 | สํานักงานทรัพยากรน้ําแห่งชาติสํานักงานทรัพยากรน้ําแห่งชาติจากกรมอุตุนิยมวิทยาและสถาบันสารสนเทศทรัพยากรน้ํา(องค์การมหาชน)จากกรมทรัพยากรน้ําและกรมทรัพยากรธรณี | กรมชลประทาน</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>นายวัชระ ไกรสัย</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -9663,6 +12291,12 @@
           <t>2024-09-25</t>
         </is>
       </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>กลุ่มงานจราจรตํารวจภูธรจังหวัดเชียงใหม่ | เรยีน</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -9690,6 +12324,8 @@
           <t>2024-09-25</t>
         </is>
       </c>
+      <c r="F354" t="inlineStr"/>
+      <c r="G354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -9717,6 +12353,16 @@
           <t>2024-09-25</t>
         </is>
       </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>ชลประทานฯ | สํานักชลประทานที่  1 เชียงใหม่ | การสํานักชลประทานที่1กรมชลประทาน | สํานักงานชลประทานที่ 1</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>นายอัฏฐวิชย์ นาควัชระ</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -9744,6 +12390,16 @@
           <t>2024-09-25</t>
         </is>
       </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>แม่ | สมบูรณ์ชล | โครงการส่งน้ําและบํารุงรักษาแม่แฝก-แม่งัดสมบูรณ์ชล | โครงการส่งน้ําและบํารุงรักษาแม่ | สมบูรณ์ชล</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>นายเฉลิมเกียรติ อินทกนก | ด้านนายเฉลิมเกียรติ</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -9771,6 +12427,16 @@
           <t>2024-09-26</t>
         </is>
       </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>การจังหวัด | โครงการส่งน้ําและบํารุงรักษาแม่แฝก- | สมบูรณ์</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>ขณะที่นาย เฉลิมเกียรติ อินทกนก</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -9794,6 +12460,12 @@
           <t>2024-09-26</t>
         </is>
       </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>ไนท์บาซาร์ไนท์บาซาร์ | 41</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -9821,6 +12493,16 @@
           <t>2024-09-26</t>
         </is>
       </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>กรมอุตุนิยมวิทยา | มูลนิธิราชประชานุเคราะห์ในพระบรมราชูปถัมภ์</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>พระบาท สมเด็จพระเ จ้าอยู่หัว สมเด็จพระ นางเจ้าฯ พระบรมราชินี | “ อิ ๊ งค์ | พระบาท สมเด็จพระเ จ้าอยู่หัว สมเด็จพระ นางเจ้าฯ พระบรมราชินี</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -9848,6 +12530,16 @@
           <t>2024-09-26</t>
         </is>
       </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>"</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>นายอานนท์ อรัญญะกานนท์</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -9875,6 +12567,12 @@
           <t>2024-09-26</t>
         </is>
       </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>เทศบาลนครเชียงใหม่ | เทศบาลนคร</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -9898,6 +12596,8 @@
           <t>2024-09-26</t>
         </is>
       </c>
+      <c r="F362" t="inlineStr"/>
+      <c r="G362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -9921,6 +12621,12 @@
           <t>2024-09-26</t>
         </is>
       </c>
+      <c r="F363" t="inlineStr"/>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>นายมิตรพนม สุพร</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -9948,6 +12654,12 @@
           <t>2024-09-26</t>
         </is>
       </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>ปภ. | ที่ป้องกันและบรรเทาสาธารณภัยจังหวัด | ปภ.บึงกาฬป้องกันและบรรเทาสาธารณภัยเทศบาลตําบล</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -9975,6 +12687,16 @@
           <t>2024-09-26</t>
         </is>
       </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>"กรมชลประทาน | ชลประทาน | กรมชลประทาน | กรมชลประทาน | กรมชลประทาน</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>นายเดช เล็กวิชัย | ลาด</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -9998,6 +12720,12 @@
           <t>2024-09-26</t>
         </is>
       </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>" | 3 | 3</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -10021,6 +12749,16 @@
           <t>2024-09-26</t>
         </is>
       </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>"กรมป้องกันและบรรเทาสาธารณภัย | กระทรวงมหาดไทยโดยกรมป้องกันและบรรเทาสาธารณภัย(ปภ. | อธิบดีกรมป้องกันและบรรเทาสาธารณภัยปภ.กรมป้องกันและบรรเทาสาธารณภัยปภ.กองอํานวยการป้องกันและบรรเทาสาธารณภัยกลางกอปภ.ก.กรมชลประทาน | อันดามัน</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>นายไชยวัฒน์ จุนถิระพงศ์</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -10044,6 +12782,12 @@
           <t>2024-09-26</t>
         </is>
       </c>
+      <c r="F368" t="inlineStr"/>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>นายสุริยพงษ์ อินตาสม</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -10071,6 +12815,16 @@
           <t>2024-09-26</t>
         </is>
       </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>การจังหวัด | เทศบาล | ปภ.แพร่</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>นายชุติเดช มีจันทร์</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -10098,6 +12852,16 @@
           <t>2024-09-26</t>
         </is>
       </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>อส | ชมรมกํานันอบต.ทาเหนือ | สวนป่า | สันกําแพง(ออป.</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>นางสุเบ็ญญา พัฒนยรรยง | นายสิทธิพัฒ บุญทรง</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -10125,6 +12889,16 @@
           <t>2024-09-26</t>
         </is>
       </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>กรมศิลปากร</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>นางกรองแก้ว มหมัติ | นางสาวสุนิส</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -10152,6 +12926,12 @@
           <t>2024-09-26</t>
         </is>
       </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>มช.มหาวิทยาลัยเชียงใหม่ | มหาวิทยาลัยเชียงใหม่  &lt;unk&gt; hiang  &lt;unk&gt; ai  &lt;unk&gt;niversityมหาวิทยาลัยเชียงใหม่ | มหาวิทยาลัยเชียงใหม่มช.มหาวิทยาลัยเชียงใหม่มหาวิทยาลั | มหาวิทยาลัยเชียงใหม่&lt;unk&gt;</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -10179,6 +12959,8 @@
           <t>2024-09-26</t>
         </is>
       </c>
+      <c r="F373" t="inlineStr"/>
+      <c r="G373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -10202,6 +12984,16 @@
           <t>2024-09-26</t>
         </is>
       </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>สทนช. | กรมชลประทาน | การศูนย์อํานวยการน้ําแห่งชาติสํานักงานทรัพยากรน้ําแห่งชาติ(สทนช. | กรมชลประทาน</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>' นายฐนโรจน์ วรรัฐประเสริฐ</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -10229,6 +13021,16 @@
           <t>2024-09-26</t>
         </is>
       </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>ราชการ | กองอํานวยการป้องกันและบรรเทาสาธารณภัยจังหวัดนนทบุรีกองอํานวยการป้องกันและบรรเทาสาธารณภัยจังหวัดนนทบุรี | กรมชลประทาน | กรมชลประทาน</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>นายอภิชัย อร่ามศรี</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -10256,6 +13058,8 @@
           <t>2024-09-26</t>
         </is>
       </c>
+      <c r="F376" t="inlineStr"/>
+      <c r="G376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -10283,6 +13087,16 @@
           <t>2024-09-26</t>
         </is>
       </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>มณฑลทหารบกที่  33 ชลประทานเชียงใหม่</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>นายนิรัตน์ พงษ์สิทธิถาวร | นาย ทศพล เผื่อนอุดม</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -10310,6 +13124,8 @@
           <t>2024-09-27</t>
         </is>
       </c>
+      <c r="F378" t="inlineStr"/>
+      <c r="G378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -10333,6 +13149,12 @@
           <t>2024-09-27</t>
         </is>
       </c>
+      <c r="F379" t="inlineStr"/>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>นางสนิท คนตรง นายนิธิพัฒน์ เชิดชู</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -10360,6 +13182,16 @@
           <t>2024-09-27</t>
         </is>
       </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>กรมฝนหลวง | ธรรมศปช. | มท. | อบต.</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>ภูมิ | น . ส .แพทองธาร ชินวัตร | นายนิรัตน์ พงษ์สิทธิถาวร</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -10383,6 +13215,16 @@
           <t>2024-09-27</t>
         </is>
       </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>กรมชลประทาน | กรมชลประทาน | ชลประทานกรมชลประทานโครงการชลประทานเชียงราย | กระทรวงเกษตรและสหกรณ์</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>นายชูชาติ รักจิตร</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -10410,6 +13252,16 @@
           <t>2024-09-27</t>
         </is>
       </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>เทศบาล | เทศบาลป้องกันฯเทศบาลตําบลบ้าน</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>น . ส .กัญฐ์ธมล ดวงวิโรจน์ | นายรพีพงศ์ ชัยอาภัย</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -10437,6 +13289,16 @@
           <t>2024-09-27</t>
         </is>
       </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>ยูนิเซฟ | ทูตองค์การยูนิเซฟประจําประเทศไทยยูนิเซฟ | ยูนิเซฟกรมป้องกันและบรรเทาสาธารณภัยปภ. | ยูนิเซฟ | กรมป้องกันและบรรเทาสาธารณภัยเชียงราย | ยูนิเซฟ</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>มาดาม แป้ง | นาง นวลพรรณ ล่ําซํา  มาดาม แป้ง | นาง นวลพรรณ</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -10464,6 +13326,16 @@
           <t>2024-09-27</t>
         </is>
       </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>สํานักงานเจ้าท่าส่วนภูมิภาค</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>พญา ศรี สัตตนา</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -10487,6 +13359,8 @@
           <t>2024-09-27</t>
         </is>
       </c>
+      <c r="F385" t="inlineStr"/>
+      <c r="G385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -10510,6 +13384,12 @@
           <t>2024-09-28</t>
         </is>
       </c>
+      <c r="F386" t="inlineStr"/>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>นาย กรัฐมนตรี แพ ทองธาร ชินวัตร</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -10533,6 +13413,16 @@
           <t>2024-09-28</t>
         </is>
       </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>คณะกรรมการโครงการกระตุ้น</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>จุล พันธ์ อมรวิวัฒน์ | จุล พันธ์</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -10560,6 +13450,16 @@
           <t>2024-09-27</t>
         </is>
       </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>ป้องกันบรรเทาอบต.วังหมัน</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>... นาย บุญเลิศ สิงใส</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -10587,6 +13487,8 @@
           <t>2024-09-27</t>
         </is>
       </c>
+      <c r="F389" t="inlineStr"/>
+      <c r="G389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -10614,6 +13516,16 @@
           <t>2024-09-27</t>
         </is>
       </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>โรงพยาบาลลานนากรมทรัพยากรน้ํา</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>นายวร วิทย์ ชัยสวัสดิ์ | นพ .จตุชัย มณีรัตน์ | นพ .ศุภชัย สินไตรรัตน์ | นพ .ดุสิต ศรีสกุล</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -10637,6 +13549,12 @@
           <t>2024-09-27</t>
         </is>
       </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>&lt;unk&gt;ews</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -10664,6 +13582,16 @@
           <t>2024-09-27</t>
         </is>
       </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>&lt;unk&gt;ichai</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>นายวัฒนา สิทธิโชค | นาง นิจ อินทรชื่น</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -10687,6 +13615,12 @@
           <t>2024-09-28</t>
         </is>
       </c>
+      <c r="F393" t="inlineStr"/>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>พล . ต . ท .กฤตธาพล ยี่สาคร</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -10710,6 +13644,8 @@
           <t>2024-09-28</t>
         </is>
       </c>
+      <c r="F394" t="inlineStr"/>
+      <c r="G394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -10733,6 +13669,16 @@
           <t>2024-09-28</t>
         </is>
       </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>ศปช. | มท</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>" อิ ๊ งค์</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -10756,6 +13702,12 @@
           <t>2024-09-28</t>
         </is>
       </c>
+      <c r="F396" t="inlineStr"/>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>นางพร ป้องกัน</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -10779,6 +13731,12 @@
           <t>2024-09-28</t>
         </is>
       </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>โครงการส่งน้ําและบํารุงรักษากิ่ว</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -10806,6 +13764,12 @@
           <t>2024-09-28</t>
         </is>
       </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>"เขื่อน</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -10833,6 +13797,16 @@
           <t>2024-09-28</t>
         </is>
       </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>อบต | ส่วนตําบล | งเ</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>นายมนตรี โตศิลปกิจ | ผง | นายรักศักดิ์ เทียนไชย</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -10856,6 +13830,12 @@
           <t>2024-09-28</t>
         </is>
       </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>ตํารวจภูธรจังหวัดเชียงใหม่</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -10883,6 +13863,16 @@
           <t>2024-09-28</t>
         </is>
       </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>ทีมกู้ภัย | กลุ่มทีมตอบโต้ภัยพิบัติสัตหีบ | มูลนิธิสว่างโรจนธรรมสถาน | ประธานชมรมกู้ภัยสว่างมูลนิธิสว่างบริบูรณ์ธรรม</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>... น . ต .กวิน เจริญศิริ | นายณรงค์ บุญบรรเจิดศรี | นายวิสิทธิ์ ชวลิตนิติธรรม</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -10906,6 +13896,16 @@
           <t>2024-09-29</t>
         </is>
       </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>"ภูมิใจไทย"เพื่อไทย | “นิด้าโพล-สวนดุสิตโพล | พรรคเพื่อไทย</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>น . ส .แพทองธาร ชินวัตร | นายทักษิณ ชินวัตร</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -10933,6 +13933,12 @@
           <t>2024-09-28</t>
         </is>
       </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>โรงพยาบาลส่งเสริมสุขภาพ | โรงพยาบาลส่งเสริมสุขภาพ</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -10956,6 +13962,16 @@
           <t>2024-09-28</t>
         </is>
       </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>เขื่อนแม่งัดฯ | โครงการส่งน้ําและบํารุงรักษาแม่แฝก-แม่งัดสมบูรณ์ชลเขื่อนแม่ | กรมอุตุนิยมวิทยาสํานักงานชลประทานที่ 1 | โครงการส่งน้ําาแ | เขื่อนแม่ | สมบูรณ์</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>นายเฉลิมเกียรติ อินทกนก</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -10983,6 +13999,16 @@
           <t>2024-09-29</t>
         </is>
       </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>กลาโหมศปช. | ของกรม</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>อิ ๊ | “ อิ ๊ งค์ | น . ส .แพทองธาร ชินวัตร | “ อิ ๊ งค์  น . ส .แพทองธาร ชินวัตร | น . ส .แพทองธาร นาย ภูมิธรรม เวชยชัย | ทหาร</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -11010,6 +14036,12 @@
           <t>2024-09-29</t>
         </is>
       </c>
+      <c r="F406" t="inlineStr"/>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>อิ ๊ งค์  น . ส .แพทองธาร ชินวัตร</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -11037,6 +14069,8 @@
           <t>2024-09-29</t>
         </is>
       </c>
+      <c r="F407" t="inlineStr"/>
+      <c r="G407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -11064,6 +14098,16 @@
           <t>2024-09-29</t>
         </is>
       </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>วัดตะ | วัด</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>พระครูสมุห์พอเจตน์ ชาตวีโร | กู | ... พระครูสมุห์พอเจตน์ ชาตวีโร | ตะกู | บ้าน</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -11087,6 +14131,16 @@
           <t>2024-09-30</t>
         </is>
       </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>สทนช. | ศปช. | กรมอุตุนิยมวิทยา | แขวงการทางพะเยามูลนิธิลือชาที่ตํารวจทางหลวงแม่กาแขวงการทาง</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>จ่า สิบ เอก อรรถพล</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -11114,6 +14168,8 @@
           <t>2024-09-30</t>
         </is>
       </c>
+      <c r="F410" t="inlineStr"/>
+      <c r="G410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -11137,6 +14193,8 @@
           <t>2024-09-30</t>
         </is>
       </c>
+      <c r="F411" t="inlineStr"/>
+      <c r="G411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -11160,6 +14218,16 @@
           <t>2024-09-30</t>
         </is>
       </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>รวงกลาโหม | ชลประทาน | โครงการชลประทานลําปาง | โครงการส่งน้ําและบํารุงรักษากิ่วลมกิ่วคอหมา | กรมชลประทานโครงการส่งน้ําและบํารุงรักษากิ่วลมกิ่วคอหมา | กรมชลประทาน</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>ภูมิ ธรรม | นาย ภูมิธรรม เวชยชัย | นายเดช เล็กวิชัย | นายอาทิว ทุ่งเจ็ด | นาย พีรยุทธ์ เหมาะพิชัย</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -11187,6 +14255,16 @@
           <t>2024-10-01</t>
         </is>
       </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>กรมชลฯ | อัคร | กระทรวงเกษตรและสหกรณ์ | ชลประทาน | กรมชลประทานสํานักงานชลประทานที่ 2สํานักเครื่องจักรกลกระทรวงเกษตรและสหกรณ์กรมชลประทาน</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>. | นาย อัครา พรหมเผ่า | นายสุริยพล นุชอนงค์</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -11214,6 +14292,12 @@
           <t>2024-09-30</t>
         </is>
       </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>กองป้องกันฯ อบจ.เชียงราย | เทศบาลตําบลแม่สาย</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -11241,6 +14325,16 @@
           <t>2024-10-01</t>
         </is>
       </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>ศปช. | สํานักชลประทานที่1 | ทศ | .</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>“ ภูมิ ธรรม | นายนิรัตน์ พงษ์สิทธิถาวร | พล น อุดม</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -11268,6 +14362,16 @@
           <t>2024-10-02</t>
         </is>
       </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>รน. | มูลนิธิตํารวจสอบสวนกลางตชด.บช.. | .</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>พล . ต . ท .จิรภพ ภูริเดช พล . ต . ต . ภูมินทร์ พุ่มพันธ์ม่วง  พ . ต . อ . พรศักดิ์ เลารุจิราลัย | นาย รอด คําน้อย | นาง ไอ่ บุญศรี | น . ส .แพทองธาร ชินวัตร นาย ประเสริฐ จันทรรวงทอง พล . ต . ท .ประจวบ วงศ์สุข พล . ต . ท .กฤตธาพล ยี่สาคร พล . ต. ท . จิรภพ  ภูริ เดช | ต.ต .ภูมิ นทร์   พุ่ม ม่วง พ จิร ลัย ่ว</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -11295,6 +14399,12 @@
           <t>2024-10-01</t>
         </is>
       </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>สํานักงานทรัพยากรน้ําแห่งชาติ | สํานักงานทรัพยากรน้ําแห่งชาติสทนช. | สํานักงานทรัพยากรน้ําแห่งชาติ</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -11322,6 +14432,16 @@
           <t>2024-10-01</t>
         </is>
       </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>ศูนย์ปฏิบัติการช่วยเหลือผู้ประสบอุทกภัย วาตภัยและดินโคลนถล่มศปช.ศปช. ส่วนหน้าจังหวัดเชียงรายกรมป้องกันและบรรเทาสาธารณภัย | ศปช.ส่วนหน้า | สถานีหน่วยป้องกันรักษาป่าที่ชร.11 | กรมป้องกันและบรรเทาสาธารณภัยกสทช.</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>นาย จิรายุ ห่วงทรัพย์</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -11349,6 +14469,12 @@
           <t>2024-10-01</t>
         </is>
       </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>ทีมภัยพิบัติม.แม่ฟ้าหลวงทีมมูลนิธิเพชรเกษมมหาวิทยาลัยแม่ฟ้าหลวง | ศปช.ส่วนหน้า | ทีมมูลนิธิเพชรเกษมมหาวิทยาลัยแม่ฟ้าหลวง</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -11376,6 +14502,16 @@
           <t>2024-10-01</t>
         </is>
       </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>เทศบาลอบต.แม่ | เทศบาล</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>นายรังสรรค์ วรรณศรี</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -11399,6 +14535,16 @@
           <t>2024-10-02</t>
         </is>
       </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>สไทย | วัฒน์</t>
+        </is>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>นายนิรัตน์ พงษ์สิทธิถาวร</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -11426,6 +14572,16 @@
           <t>2024-10-02</t>
         </is>
       </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>อธิบดีฝนหลวงฯ | ฝนหลวงและการบินเกษตร | ฝนหลวงและการบินเกษตร | เพื่อการปฏิบัติการฝนหลวง | ฝนหลวงและการบินเกษตร | ของกรมฝนหลวงและการบินเกษตรกระทรวงเกษตรและสหกรณ์</t>
+        </is>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>นายสุพิศ พิทักษ์ธรรม | นายราเชน ศิลปะรายะ | และนาย วีรวัฒน์ อังศุพาณิชย์ | นายสุพิศ พิทักษ์ธรรม</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -11453,6 +14609,12 @@
           <t>2024-10-03</t>
         </is>
       </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>“หอการค้าไทย“มหาวิทยาลัยหอการค้าไทย | หอการค้าไทย</t>
+        </is>
+      </c>
+      <c r="G423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -11476,6 +14638,12 @@
           <t>2024-10-02</t>
         </is>
       </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>ไทยรัฐโพล"ไทยรัฐโพล | ไทยรัฐออนไลน์</t>
+        </is>
+      </c>
+      <c r="G424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -11499,6 +14667,12 @@
           <t>2024-10-02</t>
         </is>
       </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>ก.ช.ภ.อก.ช.ภ.จ</t>
+        </is>
+      </c>
+      <c r="G425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -11526,6 +14700,16 @@
           <t>2024-10-02</t>
         </is>
       </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>การกระทรวงเกษตรและสหกรณ์ | ราชการกรุงเทพมหานคร | ชลประทาน | กรมชลประทาน</t>
+        </is>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>นางสาวแพทองธาร ชินวัตร  ศ .ดร.นฤมล ภิญโญสินวัฒน์ | นาย ชัชชาติ สิทธิพันธุ์ | โดยมีนายสุริยพล นุชอนงค์</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -11553,6 +14737,16 @@
           <t>2024-10-02</t>
         </is>
       </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>ทบ | ทบ | กระทรวงกลาโหม | มหาดไทย</t>
+        </is>
+      </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>พล . อ.พนา แคล้วปลอดทุกข์</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -11580,6 +14774,16 @@
           <t>2024-10-03</t>
         </is>
       </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>กรมชลประทาน | สทนช. | ชลประทาน | เกษตรฯ | ชลประทาน | กระทรวงมหาดไทย</t>
+        </is>
+      </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>นายกฯ อิ ๊ งค์ | น . ส .แพทองธาร ชินวัตร | นาง นฤมล ภิญโญสินวัฒน์ | นาย ชัชชาติ สิทธิพันธุ์ | นายสุริยพล นุชอนงค์ | น . ส .แพทองธาร</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -11607,6 +14811,16 @@
           <t>2024-10-03</t>
         </is>
       </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>.เกษตรและสหกรณ์</t>
+        </is>
+      </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>น . ส .แพทองธาร ชินวัตร นาง นฤมล ภิญโญสินวัฒน์ | และนาย ชัชชาติ สิทธิพันธุ์</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -11630,6 +14844,16 @@
           <t>2024-10-04</t>
         </is>
       </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>กรม ชลประทาน</t>
+        </is>
+      </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>นายกฯ แพทองธาร ชินวัตร | สม</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -11657,6 +14881,12 @@
           <t>2024-10-03</t>
         </is>
       </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>การไฟฟ้าฯ | "สถานีตํารวจภูธรแม่สาย | การไฟฟ้าส่วนภูมิภาคสาขา</t>
+        </is>
+      </c>
+      <c r="G431" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -11684,6 +14914,16 @@
           <t>2024-10-03</t>
         </is>
       </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>ชลประทานเชียงใหม่สํานักงานป้องกันและบรรเทาสาธารณภัยจังหวัดเชียงใหม่ | สํานักงานชลประทานที่ 1</t>
+        </is>
+      </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>นายนิรัตน์ พงษ์สิทธิถาวร | ... นายนิรัตน์ พงษ์สิทธิถาวร</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -11707,6 +14947,16 @@
           <t>2024-10-03</t>
         </is>
       </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>มูลนิธิพึ่งพา</t>
+        </is>
+      </c>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>สายลม</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -11734,6 +14984,12 @@
           <t>2024-10-03</t>
         </is>
       </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>สํานักงานทรัพยากรน้ําแห่งชาติ | วิทยาลัย</t>
+        </is>
+      </c>
+      <c r="G434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -11757,6 +15013,16 @@
           <t>2024-10-03</t>
         </is>
       </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>สํานักงานชลประทานที่ 1 | สํานักงานชลประทานที่1 | โครงการชลประทานเชียงใหม่ที่ศูนย์อุทกวิทยา | ผู้ว่าราชการจังหวัด | สํานักงานชลประทานที่1กรมชลประทาน</t>
+        </is>
+      </c>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>นายอัฏฐวิชย์ นาควัชระ | นายเกื้อกูล มานะสัมพันธ์สกุล | เจริญ</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -11784,6 +15050,16 @@
           <t>2024-10-03</t>
         </is>
       </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>สํานักงานชลประทานที่  1 เชียงใหม่</t>
+        </is>
+      </c>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>นายสันติธร ยิ้มละมัย | นายสันติธร</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -11811,6 +15087,16 @@
           <t>2024-10-03</t>
         </is>
       </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>ศูนย์วิทยุนคร | กู้ภัย | งาม | ภ | ตรวจคนเข้าเมือง | สภ</t>
+        </is>
+      </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>พล . ต . ต .ธวัชชัย พงษ์วิวัฒนชัย | พ . ต . อ .ปรัชญา ทิศลา | นาย  &lt;unk&gt; , &lt;unk&gt; | พ . ต . อ .ปรัชญา ทิศล</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -11838,6 +15124,16 @@
           <t>2024-10-03</t>
         </is>
       </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>กองทัพฝ่ายปกครอง | กองทัพฝ่ายปกครอง | กองทัพ | กองบัญชาการทหารพัฒนา</t>
+        </is>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>นายธนวัฒน์ ธีรัตนชัย | พลเอกณัฐพล นาควานิช</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -11865,6 +15161,12 @@
           <t>2024-10-03</t>
         </is>
       </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>เทศบาลนคร | หมู่บ้านการเคหะ | กองร้อยอาสา</t>
+        </is>
+      </c>
+      <c r="G439" t="inlineStr"/>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -11888,6 +15190,12 @@
           <t>2024-10-03</t>
         </is>
       </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>3 | 3 | โรงพยาบาลลานนา  &lt;unk&gt; anna  &lt;unk&gt;ospital | 3 | 3 | ospi</t>
+        </is>
+      </c>
+      <c r="G440" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -11915,6 +15223,16 @@
           <t>2024-10-04</t>
         </is>
       </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>ศูนย์ป้องกันและบรรเทาสาธารณภัยเฉพาะกิจเทศบาลนครเชียงใหม่&lt;unk&gt; | ศูนย์ | ศูนย์รับประสานงานจังหวัด</t>
+        </is>
+      </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>นาย นิรัตน์ พงษ์สิทธิถาวร</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -11938,6 +15256,12 @@
           <t>2024-10-04</t>
         </is>
       </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>อุทยานแห่งชาติ | -ปุย</t>
+        </is>
+      </c>
+      <c r="G442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -11965,6 +15289,12 @@
           <t>2024-10-04</t>
         </is>
       </c>
+      <c r="F443" t="inlineStr"/>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>คุณยาย ทองมา สิงห์แก้ว | คุณตา ใจ วงชมพู</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -11992,6 +15322,16 @@
           <t>2024-10-04</t>
         </is>
       </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>"เขื่อน | ส่วนบริหารจัดการน้ําและบํารุงรักษาสํานักชลประทานที่12</t>
+        </is>
+      </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>นายวิชัย ผันประเสริฐ | บาล</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -12019,6 +15359,8 @@
           <t>2024-10-04</t>
         </is>
       </c>
+      <c r="F445" t="inlineStr"/>
+      <c r="G445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -12042,6 +15384,16 @@
           <t>2024-10-04</t>
         </is>
       </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>สํานักงานป้องกันและบรรเทาสาธารณภัยจังหวัดลําปาง</t>
+        </is>
+      </c>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>นายจรัสพันธ์ อรุณคง | ลําน้ํา</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -12069,6 +15421,12 @@
           <t>2024-10-04</t>
         </is>
       </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>มหาวิทยาลัยเชียงใหม่</t>
+        </is>
+      </c>
+      <c r="G447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -12096,6 +15454,12 @@
           <t>2024-10-04</t>
         </is>
       </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>สํานักงานชลประทานเชียงใหม่ | "สํานักงานชลประทานเชียงใหม่ | สํานักงานชลประทานที่ 1 | สํานักงานชลประทานที่ 1</t>
+        </is>
+      </c>
+      <c r="G448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -12123,6 +15487,16 @@
           <t>2024-10-04</t>
         </is>
       </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>&lt;unk&gt;</t>
+        </is>
+      </c>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>นายนิรัตน์ พงษ์สิทธิถาวร</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -12150,6 +15524,16 @@
           <t>2024-10-04</t>
         </is>
       </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>ศูนย์บริบาลช้าง | บริ | มูลนิธิอนุรักษ์สัตว์และสิ่งแวดล้อมศูนย์ | เจดีย์ | แม่ | าอ.</t>
+        </is>
+      </c>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>นางแสงเดือน ชัยเลิศ | พระครู อ๊อด | แม่ | นาง</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -12177,6 +15561,16 @@
           <t>2024-10-04</t>
         </is>
       </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>สํานักบริหารพื้นที่อนุรักษ์ที่16 | สํานักบริหารพื้นที่อนุรักษ์ที่ 16เขตรักษาพันธุ์สัตว์ป่าเชียงดาวอุทยานแห่งชาติศรีลานนา | การสํานักบริหารอนุรักษ์16 | อุทยานแห่งชาติ | นาสํานักป้องกันและบรรเทาสาธารณภัยจังหวัดเชียงใหม่ | ศูนย์ศูนย์</t>
+        </is>
+      </c>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>นายกริชสยาม คงสตรี | ของนางแสงเดือน ชัยเลิศ โดยมีนายอานนท์ กุลนิล</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -12204,6 +15598,16 @@
           <t>2024-10-04</t>
         </is>
       </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>อบต.ดอยเต่าอบต.โป่งทุ่ง</t>
+        </is>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>นายเพิ่มศักดิ์ ศรีสวัสดิ์ | นายอารีย์ | ใจ</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -12231,6 +15635,16 @@
           <t>2024-10-04</t>
         </is>
       </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>มูลนิธิอนุรักษ์สัตว์และสิ่งแวดล้อมศูนย์บริบาลช้าง | ที่กู้ภัยเชียงใหม่ป่าไม้ตชด.ตชด.น้ําแตง</t>
+        </is>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>นางแสงเดือน ชัยเลิศ</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -12258,6 +15672,16 @@
           <t>2024-10-04</t>
         </is>
       </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>สวนสัตว์เชียงใหม่ | สวนสัตว์เชียงใหม่ | สวนสัตว์ | ปางแตง&lt;unk&gt;&lt;unk&gt;&lt;unk&gt; | มูลนิธิอนุรักษ์ช้างและสิ่งแวดล้อม&lt;unk&gt;  &lt;unk&gt;  &lt;unk&gt;ปาง | แม่แตง | สวนสัตว์ | สวนสัตว์ | สวนสัตว์เชียงใหม่</t>
+        </is>
+      </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>นายวุฒิชัย ม่วงมัน | นายวุฒิชัย ม่วงมัน</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -12285,6 +15709,16 @@
           <t>2024-10-04</t>
         </is>
       </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>นายกสมาคมกุศลสงเคราะห์เชียงใหม่</t>
+        </is>
+      </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>นายทิวลิป มหาวงศ์ | พี่ แปะ</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -12308,6 +15742,12 @@
           <t>2024-10-05</t>
         </is>
       </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>สํานักงานชลประทานที่1 | นวรัฐ</t>
+        </is>
+      </c>
+      <c r="G456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -12335,6 +15775,16 @@
           <t>2024-10-05</t>
         </is>
       </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>ทีมงานป๊อบท่อสูบน้ําบ้านแพ้วเทศบาลตําบลแม่สาย | แพ้</t>
+        </is>
+      </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>ขุนศึก | ป๊อบ</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -12362,6 +15812,12 @@
           <t>2024-10-05</t>
         </is>
       </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>ศูนย์บริบาลช้างแม่แตง</t>
+        </is>
+      </c>
+      <c r="G458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -12389,6 +15845,16 @@
           <t>2024-10-05</t>
         </is>
       </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>ศูนย์ฯ แม่แตงศูนย์บริบาลช้าง แม่แตง | บริบาล | &lt;unk&gt; | &lt;unk&gt; | การศูนย์บริบาลช้าง</t>
+        </is>
+      </c>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>แสง เดือน | ชัยเลิศ | eng du e an | iler | แสง เดือน ชัยเลิศ</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -12416,6 +15882,16 @@
           <t>2024-10-05</t>
         </is>
       </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>ปาง | เพจเฟซบุ๊ก&lt;unk&gt; .&lt;unk&gt;hailandกองทัพอากาศกองบิน 41 | อุทยานปศุสัตว์คชบาล</t>
+        </is>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>นิรัตน์ พงษ์สิทธิถาวร | นิ รัตน์ พงษ์สิทธิถาวร</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -12439,6 +15915,12 @@
           <t>2024-10-05</t>
         </is>
       </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>สํานัก งานเทศบาลนครเชียงใหม่</t>
+        </is>
+      </c>
+      <c r="G461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -12466,6 +15948,12 @@
           <t>2024-10-05</t>
         </is>
       </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>ศูนย์บริบาลช้าง&lt;unk&gt;lephant  &lt;unk&gt; ature  &lt;unk&gt;ark</t>
+        </is>
+      </c>
+      <c r="G462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -12489,6 +15977,16 @@
           <t>2024-10-05</t>
         </is>
       </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>มูลนิธิวอชด็อก | &lt;unk&gt;le&lt;unk&gt;&lt;unk&gt;arkมูลนิธิวอชด็อก ไทยแลนด์&lt;unk&gt;atchdog | มูลนิธิวอชด็อก ไทยแลนด์ar</t>
+        </is>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>" ฟ้าใส | ฟ้าใส | น . ส .กัญจนา ศิลปอาชา</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -12512,6 +16010,16 @@
           <t>2024-10-05</t>
         </is>
       </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>กรมชลประทานที่ 1 | สํานักงานชลประทานที่1 | สํานักงานชลประทานที่  1 เชียงใหม่ | สํานักงานชลประทานที่1 | สํานักงานชลประทานที่1 | ปิง</t>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>นายอัฏฐวิชย์ นาควัชระ</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -12535,6 +16043,16 @@
           <t>2024-10-05</t>
         </is>
       </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>ขนส่งจังหวัด | ขนส่งจังหวัด</t>
+        </is>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>นายมานพ พุทธวงศ์</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -12562,6 +16080,16 @@
           <t>2024-10-05</t>
         </is>
       </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>ศรีสัช | นายอําเภอศรีสัชนาลัย</t>
+        </is>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>นายเอกสิฏฐ์ วิไลศิลป์ | นาลัย</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -12585,6 +16113,16 @@
           <t>2024-10-05</t>
         </is>
       </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>ปภ.</t>
+        </is>
+      </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>นายกองตรี  ปิยะวุฒิ พิทักษ์บริบาล</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -12612,6 +16150,12 @@
           <t>2024-10-05</t>
         </is>
       </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>วัดป่าแพ่ง | เณรวัดป่าแพ่ง</t>
+        </is>
+      </c>
+      <c r="G468" t="inlineStr"/>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -12639,6 +16183,16 @@
           <t>2024-10-05</t>
         </is>
       </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>ตํารวจภาค5กงสุลจีนตํารวจภาค5สถานกงสุลใหญ่สาธารณรัฐประชาชนจีน | 5 | สส.5ปพ.บก.สส.ภ.5 | ปพ.บก.สส.ภ.5กกปพ.บก.สส.ภ.5สถานกงสุลใหญ่สาธารณรัฐ</t>
+        </is>
+      </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>พล . ต . ท .กฤตธาพล ยี่สาคร | พล . ต . ต .วรพงศ์ คําลือ | พ . ต . ท .ดนุพันธุ์ ขว้างไชย</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -12666,6 +16220,12 @@
           <t>2024-10-05</t>
         </is>
       </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>สํานักงาน ปภ.นนทบุรี | กองอํานวยการป้องกันและบรรเทาสาธารณภัย(ปภ.)จังหวัดนนทบุรี | กรมชลประทาน | กองอํานวยการป้องกันสาธารณภัย</t>
+        </is>
+      </c>
+      <c r="G470" t="inlineStr"/>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -12693,6 +16253,8 @@
           <t>2024-10-06</t>
         </is>
       </c>
+      <c r="F471" t="inlineStr"/>
+      <c r="G471" t="inlineStr"/>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -12716,6 +16278,16 @@
           <t>2024-10-06</t>
         </is>
       </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>มูลนิธิอนุรักษ์ช้างและสิ่งแวดล้อมมูลนิธิฯ | วัดเจดีย์หลวง | ศูนย์บริ</t>
+        </is>
+      </c>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>พัง พัง | นางแสงเดือน ชัยเลิศ | พัง  พระครูสังฆรักษ์วีรวัฒน์ วีรวฑฺฒโน  พระครูอ๊อด | พัง</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -12743,6 +16315,12 @@
           <t>2024-10-06</t>
         </is>
       </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>สภ.สารภี | สถานีตํารวจภูธรสารภี | สถานีตํารวจภูธรสารภี | สถานีตํารวจภูธรสารภี</t>
+        </is>
+      </c>
+      <c r="G473" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -12766,6 +16344,16 @@
           <t>2024-10-06</t>
         </is>
       </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>วัด</t>
+        </is>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>พระครู สังฆรักษ์วีรวัฒน์ พระครู อ๊อด</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -12793,6 +16381,8 @@
           <t>2024-10-06</t>
         </is>
       </c>
+      <c r="F475" t="inlineStr"/>
+      <c r="G475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -12820,6 +16410,8 @@
           <t>2024-10-06</t>
         </is>
       </c>
+      <c r="F476" t="inlineStr"/>
+      <c r="G476" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -12843,6 +16435,16 @@
           <t>2024-10-06</t>
         </is>
       </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>กรมชลประทาน | เทศบาล | เทศบาล</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>นางดํารง เนียมทอง</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -12870,6 +16472,16 @@
           <t>2024-10-06</t>
         </is>
       </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>ชลประทานฯ | ชลประทานเชียงใหม่ | ที่กู้ภัย | สํานักชลประทาน</t>
+        </is>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>นางสมพร พันธุ์เจริญ | มานะสัมพันธ์กุล</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -12893,6 +16505,12 @@
           <t>2024-10-07</t>
         </is>
       </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>กรมอุตุนิยมวิทยา</t>
+        </is>
+      </c>
+      <c r="G479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -12920,6 +16538,16 @@
           <t>2024-10-06</t>
         </is>
       </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>เทศบาลนคร</t>
+        </is>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>น . ส .สุนีย์ หรือ เจ้นิ สิทธิกรวงศ์</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -12943,6 +16571,12 @@
           <t>2024-10-06</t>
         </is>
       </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>"ทอ.กู้ภัย | กองทัพอากาศทีมกู้ภัย | กองทัพอากาศ</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -12970,6 +16604,12 @@
           <t>2024-10-06</t>
         </is>
       </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>"เขื่อนภูมิพล | " | เขื่อนภูมิพล</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -12997,6 +16637,16 @@
           <t>2024-10-06</t>
         </is>
       </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>กองพันทหารปืนใหญ่ที่ 721กองพลทหารปืนใหญ่ ค่ายสิริกิติ์</t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>นายนิพนธ์ สีตะระโส</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -13024,6 +16674,16 @@
           <t>2024-10-06</t>
         </is>
       </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>สํานักงานชลประทานที่  1 | สํานักงานชลประทานที่  1 เชียงใหม่"สํานักเครื่องจักรกล | สํานักงานชลประทานที่  1 เชียงใหม่สํานักเครื่องจักรกลกรมชลประทาน | สํานักงานชลประทานที่1</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>นายอัฏฐวิชย์ นาควัชระ</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -13051,6 +16711,16 @@
           <t>2024-10-07</t>
         </is>
       </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>เจดีย์ | วัดเจดีย์ | วรวิหาร</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>พระครู อ๊อด | พระครู อ๊อด วัด | หลวง  พลาย คุณแสน  พลาย แสนทัพ | พระครู สังฆรักษ์วีรวัฒน์ วีรวฑฺฒโน  พระครู อ๊อด | ตระกูล | พลาย คุณแสน  พลาย แสนทัพ | พระครู อ๊อด ประ</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -13074,6 +16744,8 @@
           <t>2024-10-07</t>
         </is>
       </c>
+      <c r="F486" t="inlineStr"/>
+      <c r="G486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -13101,6 +16773,16 @@
           <t>2024-10-07</t>
         </is>
       </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>สภ | ศูนย์อํานวยการป้องกันและบรรเทาสาธารณภัยเทศบาล | เทศบาล</t>
+        </is>
+      </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>พ . ต . อ .จิรภาส ศักดิ์สูง | นาง นุพิน ถายศ | น . ส .วาตี ทวีเผ่าพงศ์ | นายธรรมศักดิ์ พุฒทอง | สาร | นาง</t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -13128,6 +16810,12 @@
           <t>2024-10-07</t>
         </is>
       </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>นิปปอนเพนต์ | นิปปอนเพน | มูลนิธิกระจกเงามูลนิธิสยามเชียงราย | บริษัท  นิปปอนเพนต์  เดคโคเรทีฟ  โคทติ้ง  (ประเทศไทย) จํากัด | บริษัท  แสนสิริ จํากัด(มหาชน)บริษัท พงษ์ไพศาลวัสดุภัณฑ์จํากัดห้างหุ้นส่วนจํากัด พ.ศรีเจริญ 2511นินิปปอน | มูลนิธิกระจกเงามูลนิธิสยามเชียงราย | นิปแสนสิริ</t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -13155,6 +16843,12 @@
           <t>2024-10-07</t>
         </is>
       </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>สํานักข่าว  &lt;unk&gt;he&lt;unk&gt;eporters</t>
+        </is>
+      </c>
+      <c r="G489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -13182,6 +16876,12 @@
           <t>2024-10-07</t>
         </is>
       </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>บจ.นิปปอนเพนต์ฯ | บจม.แสนสิริ</t>
+        </is>
+      </c>
+      <c r="G490" t="inlineStr"/>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -13209,6 +16909,16 @@
           <t>2024-10-07</t>
         </is>
       </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>กระทรวงเกษตรฯ | การกระทรวงเกษตรและสหกรณ์ | กระทรวงเกษตรและสหกรณ์ | สํานักงานชลประทานที่ 10 | สํานักงานชลประทานที่ 11 | สํานักงานชลประทานที่12 | กรมชลประทาน</t>
+        </is>
+      </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>“ นฤม ล | ศ . ดร .นฤมล ภิญโญสินวัฒน์ | นาย อิทธิ ศิริลัทธยากร นายอัครา พรหมเผ่า | นายเดช เล็กวิชัย นายเสริมชัย เซียวศิริถาวร | นาย ชุติมันต์ สกุลพราหมณ์ | นายวัชระ ไกรสัย | พระนคร | บาล | หั</t>
+        </is>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -13236,6 +16946,12 @@
           <t>2024-10-08</t>
         </is>
       </c>
+      <c r="F492" t="inlineStr"/>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>แม่ ลูกจันทร์ | “ แม่ ลูกจันทร์ “ แม่ ลูกจันทร์ นายกฯ แพทองธาร ชินวัตร ดร . เสรี ศุภราทิตย์ | ... ดร .เสรี</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -13259,6 +16975,12 @@
           <t>2024-10-07</t>
         </is>
       </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>เทศบาลนคร | เทศบาลนคร | เทศบาลนคร</t>
+        </is>
+      </c>
+      <c r="G493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -13286,6 +17008,12 @@
           <t>2024-10-07</t>
         </is>
       </c>
+      <c r="F494" t="inlineStr"/>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>นายสันติธร ยิ้มละมัย</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -13313,6 +17041,12 @@
           <t>2024-10-07</t>
         </is>
       </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>สทนช.สํานักงานทรัพยากรน้ําแห่งชาติ | สํานักงานทรัพยากรน้ําแห่งชาติ | สํานักงานทรัพยากรน้ําแห่งชาติ</t>
+        </is>
+      </c>
+      <c r="G495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -13340,6 +17074,16 @@
           <t>2024-10-07</t>
         </is>
       </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>สทนช. | การศูนย์อํานวยการน้ําแห่งชาติสํานักงานทรัพยากรน้ําแห่งชาติสทนช.ศูนย์อํานวยการน้ําแห่งชาติสํานักงานทรัพยากรน้ําแห่งชาติสทนช.</t>
+        </is>
+      </c>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>นายฐนโรจน์ วรรัฐประเสริฐ</t>
+        </is>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -13367,6 +17111,16 @@
           <t>2024-10-08</t>
         </is>
       </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>สทนช.</t>
+        </is>
+      </c>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>ภูมิ ธรรม</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -13390,6 +17144,8 @@
           <t>2024-10-08</t>
         </is>
       </c>
+      <c r="F498" t="inlineStr"/>
+      <c r="G498" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -13417,6 +17173,8 @@
           <t>2024-10-08</t>
         </is>
       </c>
+      <c r="F499" t="inlineStr"/>
+      <c r="G499" t="inlineStr"/>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -13444,6 +17202,12 @@
           <t>2024-10-08</t>
         </is>
       </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>ชลประทานฯ</t>
+        </is>
+      </c>
+      <c r="G500" t="inlineStr"/>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -13467,6 +17231,12 @@
           <t>2024-10-09</t>
         </is>
       </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>กรมอุตุนิยมวิทยา | กรมอุตุฯ | กรม</t>
+        </is>
+      </c>
+      <c r="G501" t="inlineStr"/>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -13494,6 +17264,12 @@
           <t>2024-10-08</t>
         </is>
       </c>
+      <c r="F502" t="inlineStr"/>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>น . ส .ฐิติมา บัวคํา</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -13521,6 +17297,12 @@
           <t>2024-10-08</t>
         </is>
       </c>
+      <c r="F503" t="inlineStr"/>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>นายอัศนี บูรณุปกรณ์</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -13548,6 +17330,16 @@
           <t>2024-10-08</t>
         </is>
       </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>ส่งเสริมสุขภาพ</t>
+        </is>
+      </c>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>นาง อรพิน คามเกตุ</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -13571,6 +17363,16 @@
           <t>2024-10-08</t>
         </is>
       </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>สํานักงานป้องกันและบรรเทาสาธารณภัยจังหวัดลําพูน</t>
+        </is>
+      </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>น . ส .เกียว ปูนแสงไฟ | นายธนา นวลปลอด</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -13594,6 +17396,16 @@
           <t>2024-10-08</t>
         </is>
       </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>นายกองค์การบริหารส่วนจังหวัด | กเทศมนตรี | องค์การบริหารส่วนจังหวัด | สจ.</t>
+        </is>
+      </c>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>พล ตํารวจ โทคํารณวิทย์ ธูปกระจ่าง | ร . ต . อ .  ดร.ตรีลุพธ์ ธูปกระจ่าง | นายชัยวัฒน์ อินทร์เลิศ</t>
+        </is>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -13621,6 +17433,16 @@
           <t>2024-10-09</t>
         </is>
       </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>รพ. | ศปช. | ศูนย์</t>
+        </is>
+      </c>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>นายนิรัตน์ พงษ์สิทธิถาวร | นาย ทศพล เผื่อนอุดม</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -13648,6 +17470,12 @@
           <t>2024-10-09</t>
         </is>
       </c>
+      <c r="F508" t="inlineStr"/>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>นางมณีรัตน์ ดาราศรี</t>
+        </is>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -13671,6 +17499,12 @@
           <t>2024-10-09</t>
         </is>
       </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>เทศบาลนคร</t>
+        </is>
+      </c>
+      <c r="G509" t="inlineStr"/>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -13698,6 +17532,16 @@
           <t>2024-10-10</t>
         </is>
       </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>กรมพระศรีส | คณะกรรมการมูลนิธิศรีสวางควัฒนในพระอุปถัมภ์ฯ | มูลนิธิศรีสวางควัฒนในพระอุปถัมภ์ฯ | มูลนิธิศรีสวางควัฒนในพระอุปถัมภ์ฯ</t>
+        </is>
+      </c>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>วางควัฒน  สมเด็จพระ เจ้า น้อง นาง เธอ  เจ้าฟ้าจุฬาภรณวลัยลักษณ์  อัครราชกุมารี  กรมพระศรีสวางควัฒน วรขัตติยราชนารี | หม่อม หลวงปนัดดา ดิศกุล | โดยมีนายนรศักดิ์ สุขสมบูรณ์ | หม่อม หลวงปนัดดา ดิศกุล | 57</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -13721,6 +17565,12 @@
           <t>2024-10-09</t>
         </is>
       </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>&lt;unk&gt;การไฟฟ้านครหลวง | การไฟฟ้านครหลวงการไฟฟ้านครหลวง</t>
+        </is>
+      </c>
+      <c r="G511" t="inlineStr"/>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -13744,6 +17594,12 @@
           <t>2024-10-10</t>
         </is>
       </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>กกร. | กระทรวงมหาดไทย | องค์กร</t>
+        </is>
+      </c>
+      <c r="G512" t="inlineStr"/>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -13767,6 +17623,8 @@
           <t>2024-10-09</t>
         </is>
       </c>
+      <c r="F513" t="inlineStr"/>
+      <c r="G513" t="inlineStr"/>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -13794,6 +17652,12 @@
           <t>2024-10-09</t>
         </is>
       </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>กรุงเทพมหานคร | ศูนย์ปฏิบัติการน้ําอัจฉริยะกรมชลประทาน</t>
+        </is>
+      </c>
+      <c r="G514" t="inlineStr"/>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -13821,6 +17685,16 @@
           <t>2024-10-10</t>
         </is>
       </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>"เทศบาลปากเกร็ด | "เทศบาลปากเกร็ด | สํานักงานทรัพยากรน้ําแห่งชาติสทนช. | ฯล</t>
+        </is>
+      </c>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>หนู</t>
+        </is>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -13848,6 +17722,16 @@
           <t>2024-10-10</t>
         </is>
       </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>สทนช. | ชุดปฏิบัติการตอบโต้ภัยพิบัติมูลนิธิกู้ภัยปลวกแดงจ.ระยอง</t>
+        </is>
+      </c>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>ผู้ว่าฯ ชัชชาติ | นาย สามารถ สีสะอาด</t>
+        </is>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -13871,6 +17755,16 @@
           <t>2024-10-11</t>
         </is>
       </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>ด้านสิ่งแวดล้อมและสุขภาพชมรมนักวิชาการสิ่งแวดล้อม</t>
+        </is>
+      </c>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>อาจารย์สนธิ คชวัฒน์</t>
+        </is>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -13898,6 +17792,12 @@
           <t>2024-10-11</t>
         </is>
       </c>
+      <c r="F518" t="inlineStr"/>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>นายนิรัตน์ พงษ์สิทธิถาวร | นาย ศิวะ ธมิกานนท์ | นายนิรัตน์ พงษ์สิทธิถาวร</t>
+        </is>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -13925,6 +17825,16 @@
           <t>2024-10-11</t>
         </is>
       </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>กเทศมนตรี | เทศบาลนครเชียงใหม่ | แขวงนคร</t>
+        </is>
+      </c>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>นายอัศนี บูรณุปกรณ์</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -13948,6 +17858,16 @@
           <t>2024-10-11</t>
         </is>
       </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>กปน. | การประปานครหลวงกปน. | กปน. | กปน. | กปน. | กปน.</t>
+        </is>
+      </c>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>นาย สมศักดิ์ ปัสนานนท์ | นาย สมศักดิ์</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -13971,6 +17891,16 @@
           <t>2024-10-11</t>
         </is>
       </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>. | สํานักการระบายน้ํากทม.</t>
+        </is>
+      </c>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>นายเจษฎา จันทรประภา</t>
+        </is>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -13998,6 +17928,12 @@
           <t>2024-10-11</t>
         </is>
       </c>
+      <c r="F522" t="inlineStr"/>
+      <c r="G522" t="inlineStr">
+        <is>
+          <t>นายยงยุทธ ทรงศิล</t>
+        </is>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -14021,6 +17957,12 @@
           <t>2024-10-11</t>
         </is>
       </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>"เทศบาลนครเชียงใหม่"เทศบาลนครเชียงใหม่ | เทศบาลนครเชียงใหม่</t>
+        </is>
+      </c>
+      <c r="G523" t="inlineStr"/>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -14048,6 +17990,16 @@
           <t>2024-10-11</t>
         </is>
       </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>สํานักงานชลประทานที่ 12 | กรมชลประทาน</t>
+        </is>
+      </c>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>นายวัชระ ไกรสัย</t>
+        </is>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -14075,6 +18027,16 @@
           <t>2024-10-12</t>
         </is>
       </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>ศปช.</t>
+        </is>
+      </c>
+      <c r="G525" t="inlineStr">
+        <is>
+          <t>นาย ทศพล เผื่อนอุดม | นายนพรัตน์ เนียมตุ๊</t>
+        </is>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -14102,6 +18064,12 @@
           <t>2024-10-13</t>
         </is>
       </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>ศูนย์ | วิทยา</t>
+        </is>
+      </c>
+      <c r="G526" t="inlineStr"/>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -14129,6 +18097,16 @@
           <t>2024-10-14</t>
         </is>
       </c>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>กรมป้องกันและบรรเทาสาธารณภัย | สถาบันสารสนเทศทรัพยากรน้ํา(องค์การมหาชน)สสน.</t>
+        </is>
+      </c>
+      <c r="G527" t="inlineStr">
+        <is>
+          <t>“ รอยบุญ รัศมีเทศ | “ ธเนศร์ สมบูรณ์</t>
+        </is>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -14156,6 +18134,16 @@
           <t>2024-10-13</t>
         </is>
       </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>ที่ศูนย์ประสานงานให้ความช่วยเหลือและฟื้นฟูผู้ประสบภัยจังหวัด | การจังหวัด | จังหวัด | ศูนย์ประสานงานให้ความช่วยเหลือฟื้นฟูผู้ประสบอุทกภัยจังหวัดเชียงใหม่</t>
+        </is>
+      </c>
+      <c r="G528" t="inlineStr">
+        <is>
+          <t>นายนิรัตน์ พงษ์สิทธิถาวร | นาย ทศพล เผื่อนอุดม</t>
+        </is>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -14179,6 +18167,12 @@
           <t>2024-10-15</t>
         </is>
       </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>สมาคมธนาคารไทยสภาหอการค้าไทยและสภาอุตสาหกรรมแห่งประเทศไทยส.อ.ท. | กระทรวงการคลังธนาคารออมสินธนาคารเพื่อสังคม</t>
+        </is>
+      </c>
+      <c r="G529" t="inlineStr"/>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -14202,6 +18196,16 @@
           <t>2024-10-15</t>
         </is>
       </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>คณะกรรมการอํานวยการและบริหารสถานการณ์อุทกภัย ภัยคอส.</t>
+        </is>
+      </c>
+      <c r="G530" t="inlineStr">
+        <is>
+          <t>นายกฯ แพ ทองธาร ชินวัตร | คุณทักษิณ ชินวัตร คุณ ยิ่งลักษณ์ ชินวัตร คุณ แพทองธาร ชินวัตร | คุณ สมชาย วงศ์สวัสดิ์</t>
+        </is>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -14229,6 +18233,16 @@
           <t>2024-10-15</t>
         </is>
       </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>ศปช. | ศปช. | ศูนย์ปฏิบัติการศปช.</t>
+        </is>
+      </c>
+      <c r="G531" t="inlineStr">
+        <is>
+          <t>นายจิรายุ ห่วงทรัพย์</t>
+        </is>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -14252,6 +18266,16 @@
           <t>2024-10-16</t>
         </is>
       </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>สภาอุตสาหกรรมท่องเที่ยว | อุตสาหกรรมท่องเที่ยวจังหวัด</t>
+        </is>
+      </c>
+      <c r="G532" t="inlineStr">
+        <is>
+          <t>นายพัลลภ แซ่จิว | นายพัลลภ</t>
+        </is>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -14279,6 +18303,16 @@
           <t>2024-10-17</t>
         </is>
       </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>มูลนิธิหัวใจบริสุทธิ์&lt;unk&gt;  &lt;unk&gt; | มูลนิธิหัวใจบริสุทธิ์ไทย  สมายล์  กรุ๊ป และบริษัท  พลังงานบริสุทธิ์  จํากัด (มหาชน) | มูลนิธิหัวใจบริสุทธิ์ | บริษัท  ไทย  สมายล์  บัส จํากัด&lt;unk&gt;และบริษัท พลังงานบริสุทธิ์จํากัด(มหาชน)&lt;unk&gt; | มูลนิธิหัวใจบริสุทธิ์&lt;unk&gt;&lt;unk&gt;เครือเนชั่น | บริษัท ฟาสท์ออโต้(ประเทศไทยจํากัดบริษัทไทย | เกอร์จํากัดบริษัทเคลียร์คอนจํากัดเคแอลพรีเมี่ยมประเทศไทย</t>
+        </is>
+      </c>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>นางเธียรรัตน์ นะวะมะวัฒน์ | พล . ต . อ.ราม รสหอม  พ . ต . อ .วัลลพ พวงผกา | ปาร์ค</t>
+        </is>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -14306,6 +18340,16 @@
           <t>2024-10-17</t>
         </is>
       </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>เจ้าคณะตําบลบ้านกล้วยเจ้าอาวาสวัดพลายชุมพลมูลนิธิพลายชุมพล5หนเหนือมหาเถรสมาคมประจําจ.สุโขทัย | มหาเถรสมาคมใหญ่หนเหนือเจ้าอาวาสวัดพระเชตุพนวิมลมังคลาราม | สํานักงานพระพุทธศาสนาจังหวัด</t>
+        </is>
+      </c>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>พระครูปลัดสุวัฒนสาธุคุณ | ของเจ้า ประ คุณ สมเด็จพระมหาธีราจารย์ | ถุงยังชีพ พระราช วัชร ธรรมโสภณ หลวงปู่มหาศิลา สิริจนฺโท นางจรรยา รัตนเลขา</t>
+        </is>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -14333,6 +18377,12 @@
           <t>2024-10-17</t>
         </is>
       </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>ปตท.</t>
+        </is>
+      </c>
+      <c r="G535" t="inlineStr"/>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -14360,6 +18410,16 @@
           <t>2024-10-20</t>
         </is>
       </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>มหาดไทย | ช่วยมหาดไทยสภ | เทศบาลมูลนิธิสมาคมชมรม</t>
+        </is>
+      </c>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>“ ซา บีดา ไทยเศรษฐ์ | นางสาว ซาบีดา ไทยเศรษฐ์  นางสาวปานัดฌา ไทยเศรษฐ์ | นายธีร พัฒน์ คัชมาตร์ | นายวิฑูรย์ สิรินุกุล | นาย</t>
+        </is>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -14383,6 +18443,12 @@
           <t>2024-10-22</t>
         </is>
       </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>กรมอุตุฯ</t>
+        </is>
+      </c>
+      <c r="G537" t="inlineStr"/>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -14410,6 +18476,12 @@
           <t>2024-10-24</t>
         </is>
       </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>" | ร่มเกล้า | โครงการชลประทานอุทัยธานี</t>
+        </is>
+      </c>
+      <c r="G538" t="inlineStr"/>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -14433,6 +18505,16 @@
           <t>2024-10-25</t>
         </is>
       </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>.คณะวิศวกรรมศาสตร์จุฬาลงกรณ์มหาวิทยาลัย</t>
+        </is>
+      </c>
+      <c r="G539" t="inlineStr">
+        <is>
+          <t>ดร . ชัชชาติ สิทธิพันธุ์ | โฉม</t>
+        </is>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -14460,6 +18542,12 @@
           <t>2024-10-25</t>
         </is>
       </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>เขื่อนเจ้าพระยา | กรมชลประทาน | กรมชลประทาน</t>
+        </is>
+      </c>
+      <c r="G540" t="inlineStr"/>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -14487,6 +18575,12 @@
           <t>2024-10-26</t>
         </is>
       </c>
+      <c r="F541" t="inlineStr"/>
+      <c r="G541" t="inlineStr">
+        <is>
+          <t>โดย บุ ศบา เทพเภา | นายชิน เก่งสาริกิจ</t>
+        </is>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -14514,6 +18608,12 @@
           <t>2024-10-28</t>
         </is>
       </c>
+      <c r="F542" t="inlineStr"/>
+      <c r="G542" t="inlineStr">
+        <is>
+          <t>แม่ ลูกจันทร์ | ของรัฐบาล แพทองธาร ชินวัตร “ แม่ ลูกจันทร์</t>
+        </is>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -14537,6 +18637,8 @@
           <t>2024-10-28</t>
         </is>
       </c>
+      <c r="F543" t="inlineStr"/>
+      <c r="G543" t="inlineStr"/>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -14564,6 +18666,16 @@
           <t>2024-10-29</t>
         </is>
       </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>กลาโหมศูนย์ศปช. | มหาดไทยศปช.ส่วนหน้า | .กลาโหมศปช.ส่วนหน้า | .เชียงราย&lt;unk&gt;u</t>
+        </is>
+      </c>
+      <c r="G544" t="inlineStr">
+        <is>
+          <t>“ ภูมิ ธรรม | นาย ภูมิธรรม เวชยชัย | น . ส .ธีรรัตน์ สําเร็จวาณิชย์ | พล . อ .ณัฐพล นาคพาณิชย์ | นาย โชตินรินทร์ เกิดสม</t>
+        </is>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -14591,6 +18703,16 @@
           <t>2024-11-01</t>
         </is>
       </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>.กษ.กระทรวงเกษตรฯ | การกระทรวงเกษตรและสหกรณ์ | ช่วยว่าการกระทรวงเกษตรและสหกรณ์ | ช่วยว่าการกระทรวงเกษตรและสหกรณ์ | ชลประทานชลประทาน | ชลประทาน | ชลประทาน | สํานักงานชลประทานที่14กรมอุตุนิยมวิทยา | กรมชลประทานสํานักงานชลประทานที่ 14จังหวัดเพชรบุรีสํานักงานป้องกันและบรรเทาสาธารณภัยสถานีอุตุนิยมวิทยา | การกระทรวงเกษตรฯ | กรมชลประทานด</t>
+        </is>
+      </c>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>ศ . ดร .นฤมล ภิญโญสินวัฒน์ | นายอิทธิ ศิริลัทธยากร | และนาย อัครา พรหมเผ่า | นายสุริยพล นุชอนงค์ | นายเดช เล็กวิชัย | นาย วิทยา แก้วมี | นายนรเศรษฐ สองทอง | ข</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -14618,6 +18740,8 @@
           <t>2024-11-08</t>
         </is>
       </c>
+      <c r="F546" t="inlineStr"/>
+      <c r="G546" t="inlineStr"/>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -14645,6 +18769,16 @@
           <t>2024-11-23</t>
         </is>
       </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>"ปูนซีเมนต์เอเซีย | บมจ.ปูนซีเมนต์เอเซีย. | .</t>
+        </is>
+      </c>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>นายนภดล รมยะรูป | นายประเสริฐ</t>
+        </is>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -14672,6 +18806,12 @@
           <t>2024-11-28</t>
         </is>
       </c>
+      <c r="F548" t="inlineStr"/>
+      <c r="G548" t="inlineStr">
+        <is>
+          <t>“ นายกฯ อิ ๊งค์ | นายวิเชษฐ์ สาย</t>
+        </is>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
@@ -14695,6 +18835,8 @@
           <t>2024-11-28</t>
         </is>
       </c>
+      <c r="F549" t="inlineStr"/>
+      <c r="G549" t="inlineStr"/>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -14722,6 +18864,12 @@
           <t>2024-12-02</t>
         </is>
       </c>
+      <c r="F550" t="inlineStr"/>
+      <c r="G550" t="inlineStr">
+        <is>
+          <t>แม่ ลูกจันทร์ | นายกฯ แพ ทองธาร ชินวัตร</t>
+        </is>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -14749,6 +18897,8 @@
           <t>2024-12-15</t>
         </is>
       </c>
+      <c r="F551" t="inlineStr"/>
+      <c r="G551" t="inlineStr"/>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -14776,6 +18926,8 @@
           <t>2024-12-15</t>
         </is>
       </c>
+      <c r="F552" t="inlineStr"/>
+      <c r="G552" t="inlineStr"/>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -14803,6 +18955,8 @@
           <t>2024-12-16</t>
         </is>
       </c>
+      <c r="F553" t="inlineStr"/>
+      <c r="G553" t="inlineStr"/>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -14830,6 +18984,16 @@
           <t>2024-12-16</t>
         </is>
       </c>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>กรมอุตุนิยมวิทยา</t>
+        </is>
+      </c>
+      <c r="G554" t="inlineStr">
+        <is>
+          <t>อาจารย์อวิรุทธ์ สุขสมอรรถ</t>
+        </is>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -14851,6 +19015,16 @@
       <c r="E555" t="inlineStr">
         <is>
           <t>2024-12-31</t>
+        </is>
+      </c>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>ตร.สํานักนายกรัฐมนตรี | ตร. | ศาลปกครองสูงสุด | เจ้าสํานักปทุมวัน | บอสดิไอคอน | กองบัญชาการตํารวจสอบสวนกลางดิ  ไอคอน กรุ๊ปจํากัด</t>
+        </is>
+      </c>
+      <c r="G555" t="inlineStr">
+        <is>
+          <t>บิ๊ก โจ๊ก ท้าว มาลีวราช นาย เศรษฐา ทวีสิน พล . ต . อ .ต่อศักดิ์ สุขวิมล | พล . ต . อ .กิตติ์รัฐ พันธุ์เพ็ชร์ | พล . ต . อ .สุรเชษฐ์ หักพาล “ สุร เช ช ษฐ์ | “ โจ๊ก หวานเจี๊ยบ | นาย รัท วร แซม มิน</t>
         </is>
       </c>
     </row>
